--- a/data/webcase.xlsx
+++ b/data/webcase.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keen\PycharmProjects\api_webservice\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA3D489-1B0B-4BA2-B3F1-65D90BBB13E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD60508-5BFD-4310-A69C-195BD439F279}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="15024" tabRatio="775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sendMCode" sheetId="1" r:id="rId1"/>
     <sheet name="userRegister" sheetId="2" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" r:id="rId3"/>
-    <sheet name="withdraw" sheetId="4" r:id="rId4"/>
+    <sheet name="userRegister (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="recharge" sheetId="3" r:id="rId5"/>
+    <sheet name="withdraw" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="319">
   <si>
     <t>case_id</t>
   </si>
@@ -975,6 +977,14 @@
   </si>
   <si>
     <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone130#',"ip":"1.1.1.1"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"1.1.1.1"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"1.1.1.1"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -982,7 +992,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1000,6 +1010,13 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1087,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1128,6 +1145,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1465,7 +1485,7 @@
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1501,7 +1521,7 @@
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
@@ -1533,7 +1553,7 @@
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="13" t="s">
         <v>20</v>
       </c>
@@ -1565,7 +1585,7 @@
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
@@ -1597,7 +1617,7 @@
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="13" t="s">
         <v>24</v>
       </c>
@@ -1629,7 +1649,7 @@
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1661,7 +1681,7 @@
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="13" t="s">
         <v>28</v>
       </c>
@@ -1693,7 +1713,7 @@
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="13" t="s">
         <v>30</v>
       </c>
@@ -1725,7 +1745,7 @@
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="13" t="s">
         <v>32</v>
       </c>
@@ -1757,7 +1777,7 @@
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="13" t="s">
         <v>34</v>
       </c>
@@ -1789,7 +1809,7 @@
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="13" t="s">
         <v>36</v>
       </c>
@@ -1821,7 +1841,7 @@
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="13" t="s">
         <v>38</v>
       </c>
@@ -1853,7 +1873,7 @@
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="13" t="s">
         <v>40</v>
       </c>
@@ -1885,7 +1905,7 @@
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="13" t="s">
         <v>43</v>
       </c>
@@ -1917,7 +1937,7 @@
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="13" t="s">
         <v>45</v>
       </c>
@@ -1949,7 +1969,7 @@
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="13" t="s">
         <v>47</v>
       </c>
@@ -1981,7 +2001,7 @@
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="13" t="s">
         <v>49</v>
       </c>
@@ -2013,7 +2033,7 @@
       <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="13" t="s">
         <v>51</v>
       </c>
@@ -2045,7 +2065,7 @@
       <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="13" t="s">
         <v>53</v>
       </c>
@@ -2077,7 +2097,7 @@
       <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="13" t="s">
         <v>55</v>
       </c>
@@ -2109,7 +2129,7 @@
       <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="17"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="13" t="s">
         <v>57</v>
       </c>
@@ -2141,7 +2161,7 @@
       <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="17"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="13" t="s">
         <v>59</v>
       </c>
@@ -2173,7 +2193,7 @@
       <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="17"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="13" t="s">
         <v>61</v>
       </c>
@@ -2205,7 +2225,7 @@
       <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="B25" s="17"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="13" t="s">
         <v>63</v>
       </c>
@@ -2237,7 +2257,7 @@
       <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="13" t="s">
         <v>65</v>
       </c>
@@ -2269,7 +2289,7 @@
       <c r="A27" s="13">
         <v>26</v>
       </c>
-      <c r="B27" s="17"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="13" t="s">
         <v>67</v>
       </c>
@@ -2301,7 +2321,7 @@
       <c r="A28" s="13">
         <v>27</v>
       </c>
-      <c r="B28" s="17"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="13" t="s">
         <v>69</v>
       </c>
@@ -2333,7 +2353,7 @@
       <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="17"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="13" t="s">
         <v>71</v>
       </c>
@@ -2365,7 +2385,7 @@
       <c r="A30" s="13">
         <v>29</v>
       </c>
-      <c r="B30" s="17"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="13" t="s">
         <v>73</v>
       </c>
@@ -2397,7 +2417,7 @@
       <c r="A31" s="13">
         <v>30</v>
       </c>
-      <c r="B31" s="17"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="13" t="s">
         <v>75</v>
       </c>
@@ -2429,7 +2449,7 @@
       <c r="A32" s="13">
         <v>31</v>
       </c>
-      <c r="B32" s="17"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="13" t="s">
         <v>77</v>
       </c>
@@ -2461,7 +2481,7 @@
       <c r="A33" s="13">
         <v>32</v>
       </c>
-      <c r="B33" s="17"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="13" t="s">
         <v>79</v>
       </c>
@@ -2493,7 +2513,7 @@
       <c r="A34" s="13">
         <v>33</v>
       </c>
-      <c r="B34" s="17"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="13" t="s">
         <v>81</v>
       </c>
@@ -2525,7 +2545,7 @@
       <c r="A35" s="13">
         <v>34</v>
       </c>
-      <c r="B35" s="17"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="13" t="s">
         <v>83</v>
       </c>
@@ -2557,7 +2577,7 @@
       <c r="A36" s="13">
         <v>35</v>
       </c>
-      <c r="B36" s="17"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="13" t="s">
         <v>85</v>
       </c>
@@ -2589,7 +2609,7 @@
       <c r="A37" s="13">
         <v>36</v>
       </c>
-      <c r="B37" s="17"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="13" t="s">
         <v>87</v>
       </c>
@@ -2621,7 +2641,7 @@
       <c r="A38" s="13">
         <v>37</v>
       </c>
-      <c r="B38" s="17"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="13" t="s">
         <v>89</v>
       </c>
@@ -2653,7 +2673,7 @@
       <c r="A39" s="13">
         <v>38</v>
       </c>
-      <c r="B39" s="17"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="13" t="s">
         <v>91</v>
       </c>
@@ -2685,7 +2705,7 @@
       <c r="A40" s="13">
         <v>39</v>
       </c>
-      <c r="B40" s="17"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="13" t="s">
         <v>93</v>
       </c>
@@ -2717,7 +2737,7 @@
       <c r="A41" s="13">
         <v>40</v>
       </c>
-      <c r="B41" s="17"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="13" t="s">
         <v>95</v>
       </c>
@@ -2749,7 +2769,7 @@
       <c r="A42" s="13">
         <v>41</v>
       </c>
-      <c r="B42" s="17"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="13" t="s">
         <v>97</v>
       </c>
@@ -2781,7 +2801,7 @@
       <c r="A43" s="13">
         <v>42</v>
       </c>
-      <c r="B43" s="17"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="13" t="s">
         <v>99</v>
       </c>
@@ -2813,7 +2833,7 @@
       <c r="A44" s="13">
         <v>43</v>
       </c>
-      <c r="B44" s="17"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="13" t="s">
         <v>101</v>
       </c>
@@ -2845,7 +2865,7 @@
       <c r="A45" s="13">
         <v>44</v>
       </c>
-      <c r="B45" s="17"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="13" t="s">
         <v>103</v>
       </c>
@@ -2879,7 +2899,7 @@
       <c r="A46" s="13">
         <v>45</v>
       </c>
-      <c r="B46" s="17"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="13" t="s">
         <v>107</v>
       </c>
@@ -2911,7 +2931,7 @@
       <c r="A47" s="13">
         <v>46</v>
       </c>
-      <c r="B47" s="17"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="13" t="s">
         <v>109</v>
       </c>
@@ -2945,7 +2965,7 @@
       <c r="A48" s="13">
         <v>47</v>
       </c>
-      <c r="B48" s="17"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="13" t="s">
         <v>112</v>
       </c>
@@ -2969,7 +2989,7 @@
       <c r="A49" s="13">
         <v>48</v>
       </c>
-      <c r="B49" s="17"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="13" t="s">
         <v>115</v>
       </c>
@@ -2993,7 +3013,7 @@
       <c r="A50" s="13">
         <v>49</v>
       </c>
-      <c r="B50" s="17"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="13" t="s">
         <v>117</v>
       </c>
@@ -3017,7 +3037,7 @@
       <c r="A51" s="13">
         <v>50</v>
       </c>
-      <c r="B51" s="17"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="13" t="s">
         <v>119</v>
       </c>
@@ -3041,7 +3061,7 @@
       <c r="A52" s="13">
         <v>51</v>
       </c>
-      <c r="B52" s="17"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="13" t="s">
         <v>121</v>
       </c>
@@ -3063,7 +3083,7 @@
       <c r="A53" s="13">
         <v>52</v>
       </c>
-      <c r="B53" s="17"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="13" t="s">
         <v>123</v>
       </c>
@@ -3085,7 +3105,7 @@
       <c r="A54" s="13">
         <v>53</v>
       </c>
-      <c r="B54" s="17"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="13" t="s">
         <v>126</v>
       </c>
@@ -3107,7 +3127,7 @@
       <c r="A55" s="13">
         <v>54</v>
       </c>
-      <c r="B55" s="17"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="13" t="s">
         <v>128</v>
       </c>
@@ -3129,7 +3149,7 @@
       <c r="A56" s="13">
         <v>55</v>
       </c>
-      <c r="B56" s="17"/>
+      <c r="B56" s="18"/>
       <c r="C56" s="13" t="s">
         <v>130</v>
       </c>
@@ -3151,7 +3171,7 @@
       <c r="A57" s="13">
         <v>56</v>
       </c>
-      <c r="B57" s="18"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="13" t="s">
         <v>132</v>
       </c>
@@ -3183,7 +3203,1208 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="38.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="32.44140625" style="3" customWidth="1"/>
+    <col min="8" max="146" width="8.88671875" style="3" customWidth="1"/>
+    <col min="147" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="13">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="13">
+        <v>45</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="13">
+        <v>46</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="13">
+        <v>47</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="13">
+        <v>48</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="13">
+        <v>49</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="13">
+        <v>50</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="13">
+        <v>51</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="13">
+        <v>52</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="13">
+        <v>53</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="13">
+        <v>54</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="13">
+        <v>55</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="13">
+        <v>56</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="13">
+        <v>57</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="13">
+        <v>58</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="13">
+        <v>59</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="13">
+        <v>60</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="13">
+        <v>61</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="13">
+        <v>62</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="13">
+        <v>63</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="13">
+        <v>64</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="13">
+        <v>65</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="13">
+        <v>66</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="13">
+        <v>67</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="13">
+        <v>68</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="13">
+        <v>69</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="13">
+        <v>70</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="13">
+        <v>71</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="13">
+        <v>72</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="13">
+        <v>73</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="13">
+        <v>74</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="13">
+        <v>75</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="13">
+        <v>76</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="13">
+        <v>77</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="13">
+        <v>78</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="13">
+        <v>79</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="13">
+        <v>80</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="13">
+        <v>81</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="13">
+        <v>82</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="13">
+        <v>83</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="13">
+        <v>84</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="13">
+        <v>85</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="13">
+        <v>86</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="13">
+        <v>87</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" s="13">
+        <v>88</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" s="13">
+        <v>89</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" s="13">
+        <v>90</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" s="13">
+        <v>91</v>
+      </c>
+      <c r="B49" s="19"/>
+      <c r="C49" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="H49" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B49"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25751A1-B651-4B82-B1EC-DC39887817E0}">
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -3227,19 +4448,19 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="13">
+      <c r="A2" s="16">
         <v>44</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -3253,17 +4474,17 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="13">
+      <c r="A3" s="16">
         <v>45</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -3277,17 +4498,17 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="13">
+      <c r="A4" s="16">
         <v>46</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -3301,17 +4522,17 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="13">
+      <c r="A5" s="16">
         <v>47</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -3325,17 +4546,17 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="13">
+      <c r="A6" s="16">
         <v>48</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -3349,17 +4570,17 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="13">
+      <c r="A7" s="16">
         <v>49</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -3373,17 +4594,17 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="13">
+      <c r="A8" s="16">
         <v>50</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -3397,17 +4618,17 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="13">
+      <c r="A9" s="16">
         <v>51</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -3421,17 +4642,17 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="13">
+      <c r="A10" s="16">
         <v>52</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -3445,17 +4666,17 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="13">
+      <c r="A11" s="16">
         <v>53</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -3469,17 +4690,17 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="13">
+      <c r="A12" s="16">
         <v>54</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -3493,17 +4714,17 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="13">
+      <c r="A13" s="16">
         <v>55</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -3517,17 +4738,17 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="13">
+      <c r="A14" s="16">
         <v>56</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -3541,17 +4762,17 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="13">
+      <c r="A15" s="16">
         <v>57</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -3565,17 +4786,17 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="13">
+      <c r="A16" s="16">
         <v>58</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -3589,17 +4810,17 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="13">
+      <c r="A17" s="16">
         <v>59</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -3613,17 +4834,17 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="13">
+      <c r="A18" s="16">
         <v>60</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F18" s="9" t="s">
@@ -3637,17 +4858,17 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="13">
+      <c r="A19" s="16">
         <v>61</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -3661,17 +4882,17 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="13">
+      <c r="A20" s="16">
         <v>62</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F20" s="9" t="s">
@@ -3685,17 +4906,17 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="13">
+      <c r="A21" s="16">
         <v>63</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F21" s="9" t="s">
@@ -3709,17 +4930,17 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="13">
+      <c r="A22" s="16">
         <v>64</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="D22" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F22" s="9" t="s">
@@ -3733,17 +4954,17 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="13">
+      <c r="A23" s="16">
         <v>65</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="13" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -3757,17 +4978,17 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="13">
+      <c r="A24" s="16">
         <v>66</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="13" t="s">
+      <c r="D24" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F24" s="9" t="s">
@@ -3781,17 +5002,17 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="13">
+      <c r="A25" s="16">
         <v>67</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="13" t="s">
+      <c r="D25" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -3805,17 +5026,17 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="13">
+      <c r="A26" s="16">
         <v>68</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="13" t="s">
+      <c r="D26" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -3829,17 +5050,17 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="13">
+      <c r="A27" s="16">
         <v>69</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="13" t="s">
+      <c r="D27" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -3853,17 +5074,17 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="13">
+      <c r="A28" s="16">
         <v>70</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="13" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="13" t="s">
+      <c r="D28" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -3877,17 +5098,17 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="13">
+      <c r="A29" s="16">
         <v>71</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="13" t="s">
+      <c r="D29" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F29" s="9" t="s">
@@ -3901,17 +5122,17 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="13">
+      <c r="A30" s="16">
         <v>72</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="13" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="13" t="s">
+      <c r="D30" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F30" s="9" t="s">
@@ -3925,17 +5146,17 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="13">
+      <c r="A31" s="16">
         <v>73</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="13" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" s="13" t="s">
+      <c r="D31" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -3949,17 +5170,17 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="13">
+      <c r="A32" s="16">
         <v>74</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="13" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="13" t="s">
+      <c r="D32" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F32" s="9" t="s">
@@ -3973,17 +5194,17 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="13">
+      <c r="A33" s="16">
         <v>75</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="13" t="s">
+      <c r="D33" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F33" s="9" t="s">
@@ -3997,17 +5218,17 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="13">
+      <c r="A34" s="16">
         <v>76</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="13" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="13" t="s">
+      <c r="D34" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F34" s="9" t="s">
@@ -4021,17 +5242,17 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="13">
+      <c r="A35" s="16">
         <v>77</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="13" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="13" t="s">
+      <c r="D35" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F35" s="9" t="s">
@@ -4045,17 +5266,17 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="13">
+      <c r="A36" s="16">
         <v>78</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="13" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36" s="13" t="s">
+      <c r="D36" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F36" s="9" t="s">
@@ -4069,17 +5290,17 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="13">
+      <c r="A37" s="16">
         <v>79</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="13" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E37" s="13" t="s">
+      <c r="D37" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -4093,17 +5314,17 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="13">
+      <c r="A38" s="16">
         <v>80</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="13" t="s">
+      <c r="B38" s="18"/>
+      <c r="C38" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="13" t="s">
+      <c r="D38" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F38" s="9" t="s">
@@ -4117,17 +5338,17 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" s="13">
+      <c r="A39" s="16">
         <v>81</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="13" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" s="13" t="s">
+      <c r="D39" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F39" s="9" t="s">
@@ -4141,17 +5362,17 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" s="13">
+      <c r="A40" s="16">
         <v>82</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="13" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E40" s="13" t="s">
+      <c r="D40" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F40" s="9" t="s">
@@ -4165,17 +5386,17 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" s="13">
+      <c r="A41" s="16">
         <v>83</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="13" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" s="13" t="s">
+      <c r="D41" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -4189,17 +5410,17 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" s="13">
+      <c r="A42" s="16">
         <v>84</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="13" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" s="13" t="s">
+      <c r="D42" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F42" s="9" t="s">
@@ -4213,17 +5434,17 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" s="13">
+      <c r="A43" s="16">
         <v>85</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="13" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" s="13" t="s">
+      <c r="D43" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F43" s="9" t="s">
@@ -4237,17 +5458,17 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A44" s="13">
+      <c r="A44" s="16">
         <v>86</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="13" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" s="13" t="s">
+      <c r="D44" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F44" s="9" t="s">
@@ -4261,17 +5482,17 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A45" s="13">
+      <c r="A45" s="16">
         <v>87</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="13" t="s">
+      <c r="B45" s="18"/>
+      <c r="C45" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E45" s="13" t="s">
+      <c r="D45" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F45" s="9" t="s">
@@ -4283,17 +5504,17 @@
       <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A46" s="13">
+      <c r="A46" s="16">
         <v>88</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="13" t="s">
+      <c r="B46" s="18"/>
+      <c r="C46" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E46" s="13" t="s">
+      <c r="D46" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F46" s="9" t="s">
@@ -4305,17 +5526,17 @@
       <c r="H46" s="15"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" s="13">
+      <c r="A47" s="16">
         <v>89</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="13" t="s">
+      <c r="B47" s="18"/>
+      <c r="C47" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E47" s="13" t="s">
+      <c r="D47" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F47" s="9" t="s">
@@ -4327,17 +5548,17 @@
       <c r="H47" s="15"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A48" s="13">
+      <c r="A48" s="16">
         <v>90</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="13" t="s">
+      <c r="B48" s="18"/>
+      <c r="C48" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" s="13" t="s">
+      <c r="D48" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F48" s="9" t="s">
@@ -4349,17 +5570,17 @@
       <c r="H48" s="15"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" s="13">
+      <c r="A49" s="16">
         <v>91</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="13" t="s">
+      <c r="B49" s="19"/>
+      <c r="C49" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E49" s="13" t="s">
+      <c r="D49" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F49" s="9" t="s">
@@ -4374,13 +5595,26 @@
   <mergeCells count="1">
     <mergeCell ref="B2:B49"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9006CDB9-5F58-40A5-BAE3-5C56A28798B9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R17"/>
   <sheetViews>
@@ -4480,7 +5714,7 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>244</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -4522,7 +5756,7 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="13" t="s">
         <v>252</v>
       </c>
@@ -4562,7 +5796,7 @@
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="13" t="s">
         <v>255</v>
       </c>
@@ -4602,7 +5836,7 @@
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="13" t="s">
         <v>258</v>
       </c>
@@ -4630,7 +5864,7 @@
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="13" t="s">
         <v>261</v>
       </c>
@@ -4658,7 +5892,7 @@
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="13" t="s">
         <v>264</v>
       </c>
@@ -4686,7 +5920,7 @@
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="13" t="s">
         <v>267</v>
       </c>
@@ -4714,7 +5948,7 @@
       <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="13" t="s">
         <v>270</v>
       </c>
@@ -4742,7 +5976,7 @@
       <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="13" t="s">
         <v>123</v>
       </c>
@@ -4770,7 +6004,7 @@
       <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="13" t="s">
         <v>126</v>
       </c>
@@ -4798,7 +6032,7 @@
       <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="13" t="s">
         <v>274</v>
       </c>
@@ -4826,7 +6060,7 @@
       <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="13" t="s">
         <v>277</v>
       </c>
@@ -4854,7 +6088,7 @@
       <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="13" t="s">
         <v>280</v>
       </c>
@@ -4882,7 +6116,7 @@
       <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="13" t="s">
         <v>282</v>
       </c>
@@ -4910,7 +6144,7 @@
       <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="13" t="s">
         <v>284</v>
       </c>
@@ -4944,7 +6178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R20"/>
   <sheetViews>
@@ -5049,7 +6283,7 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>244</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -5089,7 +6323,7 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="14" t="s">
         <v>288</v>
       </c>
@@ -5127,7 +6361,7 @@
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>291</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -5169,7 +6403,7 @@
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="13" t="s">
         <v>297</v>
       </c>
@@ -5200,7 +6434,7 @@
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="13" t="s">
         <v>299</v>
       </c>
@@ -5231,7 +6465,7 @@
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="13" t="s">
         <v>258</v>
       </c>
@@ -5260,7 +6494,7 @@
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="13" t="s">
         <v>301</v>
       </c>
@@ -5289,7 +6523,7 @@
       <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="13" t="s">
         <v>264</v>
       </c>
@@ -5320,7 +6554,7 @@
       <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="13" t="s">
         <v>267</v>
       </c>
@@ -5349,7 +6583,7 @@
       <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="13" t="s">
         <v>270</v>
       </c>
@@ -5378,7 +6612,7 @@
       <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="13" t="s">
         <v>123</v>
       </c>
@@ -5407,7 +6641,7 @@
       <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="13" t="s">
         <v>126</v>
       </c>
@@ -5436,7 +6670,7 @@
       <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="13" t="s">
         <v>304</v>
       </c>
@@ -5465,7 +6699,7 @@
       <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="13" t="s">
         <v>306</v>
       </c>
@@ -5494,7 +6728,7 @@
       <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="13" t="s">
         <v>308</v>
       </c>
@@ -5523,7 +6757,7 @@
       <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="13" t="s">
         <v>310</v>
       </c>
@@ -5552,7 +6786,7 @@
       <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="13" t="s">
         <v>312</v>
       </c>
@@ -5583,7 +6817,7 @@
       <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="13" t="s">
         <v>313</v>
       </c>

--- a/data/webcase.xlsx
+++ b/data/webcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keen\PycharmProjects\api_webservice\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4781EBE-DB1C-450A-B067-AE28C209F73B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9082DB55-5CE5-476E-9A3A-1435404EA520}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="15024" tabRatio="775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="15024" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sendMCode" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="326">
   <si>
     <t>case_id</t>
   </si>
@@ -435,423 +435,324 @@
     <t>userRegister</t>
   </si>
   <si>
+    <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段131）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段132）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段133）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段134）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段135）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段136）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段137）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段138）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段139）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段145）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段147）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段150）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段151）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段152）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段153）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段155）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段156）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段157）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段158）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段159）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段170）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段176）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段177）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段178）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段180）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段181）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段182）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段183）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段184）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段185）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段186）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段187）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段188）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段189）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段198）</t>
+  </si>
+  <si>
+    <t>正常注册（手机号段199）</t>
+  </si>
+  <si>
+    <t>{'retCode': '1', 'retInfo': 'ok'}</t>
+  </si>
+  <si>
+    <t>验证码错误</t>
+  </si>
+  <si>
+    <t>{"verify_code":"111111", "user_id":"baozi","channel_id":"3","pwd":"123456","mobile":"#phone130#","ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{'retCode': 19001, 'retInfo': '手机号错误'}</t>
+  </si>
+  <si>
+    <t>验证码5位数</t>
+  </si>
+  <si>
+    <t>{"verify_code":"11356", "user_id":"baozi","channel_id":"3","pwd":"123456","mobile":"#phone130#","ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>验证码7位数</t>
+  </si>
+  <si>
+    <t>{"verify_code":"7376898", "user_id":"baozi","channel_id":"3","pwd":"123456","mobile":"#phone130#","ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>验证码包含字母</t>
+  </si>
+  <si>
+    <t>{"verify_code":"a34265", "user_id":"baozi","channel_id":"3","pwd":"123456","mobile":"#phone130#","ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>用户名为空</t>
+  </si>
+  <si>
+    <t>{"verify_code":135769, "user_id":"baozi","channel_id":"3","pwd":"123456","mobile":"#phone130#","ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>13312517596</t>
+  </si>
+  <si>
     <t>/financeUserInfoFacade.ws?wsdl</t>
   </si>
   <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>13045350988</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段131）</t>
-  </si>
-  <si>
-    <t>13152295604</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段132）</t>
-  </si>
-  <si>
-    <t>13273928233</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段133）</t>
-  </si>
-  <si>
-    <t>13380070682</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段134）</t>
-  </si>
-  <si>
-    <t>13483709604</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段135）</t>
-  </si>
-  <si>
-    <t>13575198276</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段136）</t>
-  </si>
-  <si>
-    <t>13647198157</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段137）</t>
-  </si>
-  <si>
-    <t>13772926973</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段138）</t>
-  </si>
-  <si>
-    <t>13823699697</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段139）</t>
-  </si>
-  <si>
-    <t>13917285762</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段145）</t>
-  </si>
-  <si>
-    <t>14587345402</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段147）</t>
-  </si>
-  <si>
-    <t>14798107021</t>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone130#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone131#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone132#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone133#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone134#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone135#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone136#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone137#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone138#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone139#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone145#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone147#',"ip":"1.1.1.1"}</t>
   </si>
   <si>
     <t>正常注册（手机号段149）</t>
   </si>
   <si>
-    <t>正常注册（手机号段150）</t>
-  </si>
-  <si>
-    <t>15022551926</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段151）</t>
-  </si>
-  <si>
-    <t>15146347341</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段152）</t>
-  </si>
-  <si>
-    <t>15206464588</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段153）</t>
-  </si>
-  <si>
-    <t>15370343468</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段155）</t>
-  </si>
-  <si>
-    <t>15592494990</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段156）</t>
-  </si>
-  <si>
-    <t>15686361751</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段157）</t>
-  </si>
-  <si>
-    <t>15747269990</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段158）</t>
-  </si>
-  <si>
-    <t>15819403579</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段159）</t>
-  </si>
-  <si>
-    <t>15958494889</t>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone149#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone150#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone151#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone152#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone153#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone155#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone156#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone157#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone158#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone159#',"ip":"1.1.1.1"}</t>
   </si>
   <si>
     <t>正常注册（手机号段166）</t>
   </si>
   <si>
-    <t>正常注册（手机号段170）</t>
-  </si>
-  <si>
-    <t>17075961444</t>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone166#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone170#',"ip":"1.1.1.1"}</t>
   </si>
   <si>
     <t>正常注册（手机号段171）</t>
   </si>
   <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone171#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
     <t>正常注册（手机号段172）</t>
   </si>
   <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone172#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
     <t>正常注册（手机号段173）</t>
   </si>
   <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone173#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
     <t>正常注册（手机号段175）</t>
   </si>
   <si>
-    <t>正常注册（手机号段176）</t>
-  </si>
-  <si>
-    <t>17648683203</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段177）</t>
-  </si>
-  <si>
-    <t>17711465854</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段178）</t>
-  </si>
-  <si>
-    <t>17883567358</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段180）</t>
-  </si>
-  <si>
-    <t>18000744782</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段181）</t>
-  </si>
-  <si>
-    <t>18164801541</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段182）</t>
-  </si>
-  <si>
-    <t>18220102286</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段183）</t>
-  </si>
-  <si>
-    <t>18399896768</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段184）</t>
-  </si>
-  <si>
-    <t>18481333706</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段185）</t>
-  </si>
-  <si>
-    <t>18596909816</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段186）</t>
-  </si>
-  <si>
-    <t>18680629365</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段187）</t>
-  </si>
-  <si>
-    <t>18760023780</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段188）</t>
-  </si>
-  <si>
-    <t>18825069957</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段189）</t>
-  </si>
-  <si>
-    <t>18915168331</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段198）</t>
-  </si>
-  <si>
-    <t>正常注册（手机号段199）</t>
-  </si>
-  <si>
-    <t>{'retCode': '1', 'retInfo': 'ok'}</t>
-  </si>
-  <si>
-    <t>验证码错误</t>
-  </si>
-  <si>
-    <t>{"verify_code":"111111", "user_id":"baozi","channel_id":"3","pwd":"123456","mobile":"#phone130#","ip":"1.1.1.1"}</t>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone175#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone176#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone177#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone178#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone180#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone181#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone182#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone183#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone184#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone185#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone186#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone187#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone188#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone189#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone198#',"ip":"1.1.1.1"}</t>
+  </si>
+  <si>
+    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone199#',"ip":"1.1.1.1"}</t>
   </si>
   <si>
     <t>{'retCode': '2', 'retInfo': 'ok'}</t>
   </si>
   <si>
-    <t>验证码5位数</t>
-  </si>
-  <si>
-    <t>{"verify_code":"11356", "user_id":"baozi","channel_id":"3","pwd":"123456","mobile":"#phone130#","ip":"1.1.1.1"}</t>
-  </si>
-  <si>
     <t>{'retCode': '3', 'retInfo': 'ok'}</t>
   </si>
   <si>
-    <t>验证码7位数</t>
-  </si>
-  <si>
-    <t>{"verify_code":"7376898", "user_id":"baozi","channel_id":"3","pwd":"123456","mobile":"#phone130#","ip":"1.1.1.1"}</t>
-  </si>
-  <si>
     <t>{'retCode': '4', 'retInfo': 'ok'}</t>
   </si>
   <si>
-    <t>验证码包含字母</t>
-  </si>
-  <si>
-    <t>{"verify_code":"a34265", "user_id":"baozi","channel_id":"3","pwd":"123456","mobile":"#phone130#","ip":"1.1.1.1"}</t>
-  </si>
-  <si>
     <t>{'retCode': '5', 'retInfo': 'ok'}</t>
   </si>
   <si>
-    <t>用户名为空</t>
-  </si>
-  <si>
-    <t>{"verify_code":135769, "user_id":"baozi","channel_id":"3","pwd":"123456","mobile":"#phone130#","ip":"1.1.1.1"}</t>
-  </si>
-  <si>
     <t>{'retCode': '6', 'retInfo': 'ok'}</t>
   </si>
   <si>
-    <t>13360076305</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone130#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone131#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone132#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone133#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone134#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone135#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone136#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone137#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone138#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone139#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone145#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone147#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone149#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone150#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone151#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone152#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone153#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone155#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone156#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone157#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone158#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone159#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone166#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone170#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone171#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone172#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone173#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone175#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone176#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone177#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone178#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone180#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone181#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone182#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone183#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone184#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone185#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone186#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone187#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone188#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone189#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone198#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
-    <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone199#',"ip":"1.1.1.1"}</t>
-  </si>
-  <si>
     <t>method</t>
   </si>
   <si>
@@ -1093,9 +994,18 @@
   </si>
   <si>
     <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
-  </si>
-  <si>
-    <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常注册（手机号段149）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常注册（手机号段166）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常注册（手机号段175）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1103,7 +1013,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1117,12 +1027,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1544,7 +1448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
@@ -1559,8 +1463,8 @@
     <col min="6" max="6" width="60.88671875" style="3" customWidth="1"/>
     <col min="7" max="7" width="62.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" style="3" customWidth="1"/>
-    <col min="9" max="159" width="8.88671875" style="3" customWidth="1"/>
-    <col min="160" max="16384" width="8.88671875" style="3"/>
+    <col min="9" max="161" width="8.88671875" style="3" customWidth="1"/>
+    <col min="162" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
@@ -3301,7 +3205,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:B57"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -3309,10 +3213,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E49"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3326,8 +3231,8 @@
     <col min="7" max="7" width="32.44140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="3" customWidth="1"/>
     <col min="9" max="9" width="27" style="3" customWidth="1"/>
-    <col min="10" max="147" width="8.88671875" style="3" customWidth="1"/>
-    <col min="148" max="16384" width="8.88671875" style="3"/>
+    <col min="10" max="149" width="8.88671875" style="3" customWidth="1"/>
+    <col min="150" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
@@ -3373,7 +3278,7 @@
         <v>135</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>356</v>
+        <v>136</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>137</v>
@@ -3384,9 +3289,7 @@
       <c r="H2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>138</v>
-      </c>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="14">
@@ -3394,13 +3297,13 @@
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>356</v>
+        <v>136</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>137</v>
@@ -3411,9 +3314,7 @@
       <c r="H3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>140</v>
-      </c>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="14">
@@ -3421,13 +3322,13 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>137</v>
@@ -3438,9 +3339,7 @@
       <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>142</v>
-      </c>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="14">
@@ -3448,13 +3347,13 @@
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>137</v>
@@ -3465,9 +3364,7 @@
       <c r="H5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>144</v>
-      </c>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="14">
@@ -3475,13 +3372,13 @@
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>137</v>
@@ -3492,9 +3389,7 @@
       <c r="H6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>146</v>
-      </c>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="14">
@@ -3502,13 +3397,13 @@
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>137</v>
@@ -3519,9 +3414,7 @@
       <c r="H7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>148</v>
-      </c>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="14">
@@ -3529,13 +3422,13 @@
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="14" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>137</v>
@@ -3546,9 +3439,7 @@
       <c r="H8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>150</v>
-      </c>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="14">
@@ -3556,13 +3447,13 @@
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>137</v>
@@ -3573,9 +3464,7 @@
       <c r="H9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>152</v>
-      </c>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="14">
@@ -3583,13 +3472,13 @@
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>137</v>
@@ -3600,9 +3489,7 @@
       <c r="H10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="14">
@@ -3610,13 +3497,13 @@
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="14" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>137</v>
@@ -3627,9 +3514,7 @@
       <c r="H11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>156</v>
-      </c>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="14">
@@ -3637,13 +3522,13 @@
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="14" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>137</v>
@@ -3654,9 +3539,7 @@
       <c r="H12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>158</v>
-      </c>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="14">
@@ -3664,13 +3547,13 @@
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="14" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>137</v>
@@ -3681,9 +3564,7 @@
       <c r="H13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>160</v>
-      </c>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="14">
@@ -3691,13 +3572,13 @@
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="14" t="s">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>137</v>
@@ -3706,7 +3587,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I14" s="13"/>
     </row>
@@ -3716,13 +3597,13 @@
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="14" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>137</v>
@@ -3733,9 +3614,7 @@
       <c r="H15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>163</v>
-      </c>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="14">
@@ -3743,13 +3622,13 @@
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="14" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>137</v>
@@ -3760,9 +3639,7 @@
       <c r="H16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>165</v>
-      </c>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="14">
@@ -3770,13 +3647,13 @@
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="14" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>137</v>
@@ -3787,9 +3664,7 @@
       <c r="H17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>167</v>
-      </c>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="14">
@@ -3797,13 +3672,13 @@
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="14" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>137</v>
@@ -3814,9 +3689,7 @@
       <c r="H18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>169</v>
-      </c>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="14">
@@ -3824,13 +3697,13 @@
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="14" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>137</v>
@@ -3841,9 +3714,7 @@
       <c r="H19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>171</v>
-      </c>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="14">
@@ -3851,13 +3722,13 @@
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="14" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>137</v>
@@ -3868,9 +3739,7 @@
       <c r="H20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>173</v>
-      </c>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="14">
@@ -3878,13 +3747,13 @@
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>137</v>
@@ -3895,9 +3764,7 @@
       <c r="H21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="13" t="s">
-        <v>175</v>
-      </c>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="14">
@@ -3905,13 +3772,13 @@
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="14" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>137</v>
@@ -3922,9 +3789,7 @@
       <c r="H22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="14">
@@ -3932,13 +3797,13 @@
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="14" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>137</v>
@@ -3949,9 +3814,7 @@
       <c r="H23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="13" t="s">
-        <v>179</v>
-      </c>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="14">
@@ -3959,13 +3822,13 @@
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="14" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>137</v>
@@ -3974,7 +3837,7 @@
         <v>13</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I24" s="13"/>
     </row>
@@ -3984,13 +3847,13 @@
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="14" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>137</v>
@@ -4001,9 +3864,7 @@
       <c r="H25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="13" t="s">
-        <v>182</v>
-      </c>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="14">
@@ -4011,13 +3872,13 @@
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="14" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>137</v>
@@ -4025,9 +3886,7 @@
       <c r="G26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="H26" s="9"/>
       <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -4036,13 +3895,13 @@
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="14" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>137</v>
@@ -4050,9 +3909,7 @@
       <c r="G27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="H27" s="9"/>
       <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
@@ -4061,13 +3918,13 @@
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="14" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>137</v>
@@ -4075,9 +3932,7 @@
       <c r="G28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="H28" s="9"/>
       <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -4086,13 +3941,13 @@
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="14" t="s">
-        <v>186</v>
+        <v>325</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>137</v>
@@ -4100,9 +3955,7 @@
       <c r="G29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="H29" s="9"/>
       <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
@@ -4111,13 +3964,13 @@
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="14" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>137</v>
@@ -4128,9 +3981,7 @@
       <c r="H30" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="13" t="s">
-        <v>188</v>
-      </c>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="14">
@@ -4138,13 +3989,13 @@
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="14" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>137</v>
@@ -4155,9 +4006,7 @@
       <c r="H31" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="14">
@@ -4165,13 +4014,13 @@
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="14" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>137</v>
@@ -4182,9 +4031,7 @@
       <c r="H32" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="13" t="s">
-        <v>192</v>
-      </c>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="14">
@@ -4192,13 +4039,13 @@
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="14" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>137</v>
@@ -4209,9 +4056,7 @@
       <c r="H33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="13" t="s">
-        <v>194</v>
-      </c>
+      <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="14">
@@ -4219,13 +4064,13 @@
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="14" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>137</v>
@@ -4236,9 +4081,7 @@
       <c r="H34" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="13" t="s">
-        <v>196</v>
-      </c>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="14">
@@ -4246,13 +4089,13 @@
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="14" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>137</v>
@@ -4263,9 +4106,7 @@
       <c r="H35" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="13" t="s">
-        <v>198</v>
-      </c>
+      <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="14">
@@ -4273,13 +4114,13 @@
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="14" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>137</v>
@@ -4290,9 +4131,7 @@
       <c r="H36" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="13" t="s">
-        <v>200</v>
-      </c>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="14">
@@ -4300,13 +4139,13 @@
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="14" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>137</v>
@@ -4317,9 +4156,7 @@
       <c r="H37" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="13" t="s">
-        <v>202</v>
-      </c>
+      <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="14">
@@ -4327,13 +4164,13 @@
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="14" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>137</v>
@@ -4344,9 +4181,7 @@
       <c r="H38" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="13" t="s">
-        <v>204</v>
-      </c>
+      <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="14">
@@ -4354,13 +4189,13 @@
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="14" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>137</v>
@@ -4371,9 +4206,7 @@
       <c r="H39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="13" t="s">
-        <v>206</v>
-      </c>
+      <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="14">
@@ -4381,13 +4214,13 @@
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="14" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>137</v>
@@ -4398,9 +4231,7 @@
       <c r="H40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="13" t="s">
-        <v>208</v>
-      </c>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="14">
@@ -4408,13 +4239,13 @@
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="14" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>137</v>
@@ -4425,9 +4256,7 @@
       <c r="H41" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="13" t="s">
-        <v>210</v>
-      </c>
+      <c r="I41" s="13"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="14">
@@ -4435,13 +4264,13 @@
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="14" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>137</v>
@@ -4452,9 +4281,7 @@
       <c r="H42" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="13" t="s">
-        <v>212</v>
-      </c>
+      <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="14">
@@ -4462,13 +4289,13 @@
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="14" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>137</v>
@@ -4487,19 +4314,19 @@
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="14" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>137</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>40</v>
@@ -4512,21 +4339,23 @@
       </c>
       <c r="B45" s="17"/>
       <c r="C45" s="14" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H45" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="I45" s="13"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
@@ -4535,21 +4364,23 @@
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="14" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="H46" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
@@ -4558,21 +4389,23 @@
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="14" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="H47" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
@@ -4581,21 +4414,23 @@
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="14" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="H48" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
@@ -4604,26 +4439,31 @@
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="14" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H49" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I50" t="s">
-        <v>231</v>
+      <c r="I50"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I56" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4640,8 +4480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4653,8 +4493,8 @@
     <col min="5" max="5" width="24.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="38.21875" style="3" customWidth="1"/>
     <col min="7" max="7" width="32.44140625" style="3" customWidth="1"/>
-    <col min="8" max="147" width="8.88671875" style="3" customWidth="1"/>
-    <col min="148" max="16384" width="8.88671875" style="3"/>
+    <col min="8" max="149" width="8.88671875" style="3" customWidth="1"/>
+    <col min="150" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
@@ -4685,7 +4525,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="14">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>133</v>
@@ -4697,10 +4537,10 @@
         <v>135</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>13</v>
@@ -4711,20 +4551,20 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="14">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>13</v>
@@ -4735,20 +4575,20 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="14">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>13</v>
@@ -4759,20 +4599,20 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="14">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>13</v>
@@ -4783,20 +4623,20 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="14">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>13</v>
@@ -4807,20 +4647,20 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="14">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>13</v>
@@ -4831,20 +4671,20 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="14">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="14" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>13</v>
@@ -4855,20 +4695,20 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="14">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>13</v>
@@ -4879,20 +4719,20 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="14">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>13</v>
@@ -4903,20 +4743,20 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="14">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="14" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>13</v>
@@ -4927,20 +4767,20 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="14">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="14" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>13</v>
@@ -4951,20 +4791,20 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="14">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="14" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>13</v>
@@ -4975,20 +4815,20 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="14">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="14" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>13</v>
@@ -4999,20 +4839,20 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="14">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="14" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>13</v>
@@ -5023,20 +4863,20 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="14">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="14" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>13</v>
@@ -5047,20 +4887,20 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="14">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="14" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>13</v>
@@ -5071,20 +4911,20 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="14">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="14" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>13</v>
@@ -5095,20 +4935,20 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="14">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="14" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>13</v>
@@ -5119,20 +4959,20 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="14">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="14" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>13</v>
@@ -5143,20 +4983,20 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="14">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>13</v>
@@ -5167,20 +5007,20 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="14">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="14" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>13</v>
@@ -5191,20 +5031,20 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="14">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="14" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>13</v>
@@ -5215,20 +5055,20 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="14">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="14" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>13</v>
@@ -5239,20 +5079,20 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="14">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="14" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>13</v>
@@ -5263,20 +5103,20 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="14">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="14" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>13</v>
@@ -5287,20 +5127,20 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="14">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="14" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>13</v>
@@ -5311,20 +5151,20 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="14">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="14" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>13</v>
@@ -5335,20 +5175,20 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="14">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="14" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>13</v>
@@ -5359,20 +5199,20 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="14">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>136</v>
-      </c>
       <c r="F30" s="9" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>13</v>
@@ -5383,20 +5223,20 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="14">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="14" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>13</v>
@@ -5407,20 +5247,20 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="14">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="14" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>13</v>
@@ -5431,20 +5271,20 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="14">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="14" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>13</v>
@@ -5455,20 +5295,20 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="14">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="14" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>13</v>
@@ -5479,20 +5319,20 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="14">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="14" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>13</v>
@@ -5503,20 +5343,20 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="14">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="14" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>13</v>
@@ -5527,20 +5367,20 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="14">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="14" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>13</v>
@@ -5551,20 +5391,20 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="14">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="14" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>13</v>
@@ -5575,20 +5415,20 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="14">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="14" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>13</v>
@@ -5599,20 +5439,20 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="14">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="14" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>13</v>
@@ -5623,20 +5463,20 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="14">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="14" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>13</v>
@@ -5647,20 +5487,20 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="14">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="14" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>13</v>
@@ -5671,20 +5511,20 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="14">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="14" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>13</v>
@@ -5695,23 +5535,23 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="14">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="14" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>40</v>
@@ -5719,111 +5559,111 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="14">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B45" s="17"/>
       <c r="C45" s="14" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="14">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="14" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="H46" s="13"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="14">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="14" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="14">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="14" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="H48" s="13"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="14">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="14" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="H49" s="13"/>
     </row>
@@ -5831,7 +5671,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:B49"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -5845,7 +5685,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5870,8 +5710,8 @@
     <col min="8" max="8" width="27.44140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="42.88671875" style="3" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" style="3" customWidth="1"/>
-    <col min="11" max="161" width="8.88671875" style="3" customWidth="1"/>
-    <col min="162" max="16384" width="8.88671875" style="3"/>
+    <col min="11" max="163" width="8.88671875" style="3" customWidth="1"/>
+    <col min="164" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
@@ -5888,7 +5728,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -5897,7 +5737,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -5911,26 +5751,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>14</v>
@@ -5951,34 +5791,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -5994,31 +5834,31 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="14" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -6034,31 +5874,31 @@
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="14" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
@@ -6074,23 +5914,23 @@
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="14" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>14</v>
@@ -6102,23 +5942,23 @@
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="14" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>14</v>
@@ -6130,23 +5970,23 @@
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="14" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>14</v>
@@ -6158,23 +5998,23 @@
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="14" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>14</v>
@@ -6186,23 +6026,23 @@
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="14" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>14</v>
@@ -6217,20 +6057,20 @@
         <v>121</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>14</v>
@@ -6245,20 +6085,20 @@
         <v>124</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="E12" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>280</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>313</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>14</v>
@@ -6270,23 +6110,23 @@
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="14" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>14</v>
@@ -6298,23 +6138,23 @@
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="14" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>40</v>
@@ -6326,23 +6166,23 @@
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="14" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>14</v>
@@ -6354,23 +6194,23 @@
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="14" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>14</v>
@@ -6382,23 +6222,23 @@
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="14" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>14</v>
@@ -6408,7 +6248,7 @@
   <mergeCells count="1">
     <mergeCell ref="B3:B17"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -6436,8 +6276,8 @@
     <col min="9" max="9" width="34.21875" style="3" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="29.44140625" style="5" customWidth="1"/>
-    <col min="12" max="162" width="8.88671875" style="3" customWidth="1"/>
-    <col min="163" max="16384" width="8.88671875" style="3"/>
+    <col min="12" max="164" width="8.88671875" style="3" customWidth="1"/>
+    <col min="165" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
@@ -6454,7 +6294,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -6463,7 +6303,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -6472,7 +6312,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
@@ -6480,26 +6320,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>14</v>
@@ -6520,32 +6360,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -6561,29 +6401,29 @@
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="15" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -6598,34 +6438,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
@@ -6641,25 +6481,25 @@
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="14" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>14</v>
@@ -6672,25 +6512,25 @@
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="14" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>14</v>
@@ -6703,23 +6543,23 @@
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="14" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>14</v>
@@ -6732,23 +6572,23 @@
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="14" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>14</v>
@@ -6761,29 +6601,29 @@
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="14" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
@@ -6792,23 +6632,23 @@
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="14" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>14</v>
@@ -6821,23 +6661,23 @@
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="14" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>14</v>
@@ -6853,20 +6693,20 @@
         <v>121</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>14</v>
@@ -6882,20 +6722,20 @@
         <v>124</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>280</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>313</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>14</v>
@@ -6908,23 +6748,23 @@
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="14" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>14</v>
@@ -6937,23 +6777,23 @@
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="14" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>40</v>
@@ -6966,23 +6806,23 @@
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="14" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>14</v>
@@ -6995,23 +6835,23 @@
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="14" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>14</v>
@@ -7024,29 +6864,29 @@
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="14" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -7055,23 +6895,23 @@
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="14" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>40</v>
@@ -7083,7 +6923,7 @@
     <mergeCell ref="B5:B20"/>
     <mergeCell ref="B3:B4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/data/webcase.xlsx
+++ b/data/webcase.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="15024" windowWidth="0" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="15024" windowWidth="0" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="sendMCode" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="userRegister" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="verifyUserAuth" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="userRegister (2)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="recharge" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="withdraw" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="verifyUserAuth" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="userRegister (2)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="recharge" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="withdraw" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -21,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -35,6 +36,12 @@
       <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
@@ -203,7 +210,7 @@
   <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
     <dxf>
       <font>
         <color auto="1"/>
@@ -211,6 +218,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -513,9 +550,9 @@
   </sheetPr>
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="H1" pane="bottomLeft" sqref="H1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A26" ySplit="1"/>
+      <selection activeCell="G33" pane="bottomLeft" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
@@ -526,11 +563,11 @@
     <col bestFit="1" customWidth="1" max="4" min="4" style="12" width="15.21875"/>
     <col customWidth="1" max="5" min="5" style="22" width="9.44140625"/>
     <col customWidth="1" max="6" min="6" style="22" width="60.88671875"/>
-    <col customWidth="1" max="7" min="7" style="22" width="40.33203125"/>
-    <col customWidth="1" max="8" min="8" style="12" width="40.33203125"/>
+    <col customWidth="1" max="7" min="7" style="22" width="32.109375"/>
+    <col customWidth="1" max="8" min="8" style="12" width="57.109375"/>
     <col customWidth="1" max="9" min="9" style="22" width="10.33203125"/>
-    <col customWidth="1" max="196" min="10" style="22" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="197" style="22" width="8.88671875"/>
+    <col customWidth="1" max="211" min="10" style="22" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="212" style="22" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -616,7 +653,7 @@
       </c>
       <c r="H2" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I2" s="6" t="inlineStr">
@@ -665,7 +702,7 @@
       </c>
       <c r="H3" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I3" s="6" t="inlineStr">
@@ -707,7 +744,7 @@
       </c>
       <c r="H4" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I4" s="6" t="inlineStr">
@@ -749,7 +786,7 @@
       </c>
       <c r="H5" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I5" s="6" t="inlineStr">
@@ -791,7 +828,7 @@
       </c>
       <c r="H6" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I6" s="6" t="inlineStr">
@@ -833,7 +870,7 @@
       </c>
       <c r="H7" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I7" s="6" t="inlineStr">
@@ -875,7 +912,7 @@
       </c>
       <c r="H8" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I8" s="6" t="inlineStr">
@@ -917,7 +954,7 @@
       </c>
       <c r="H9" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I9" s="6" t="inlineStr">
@@ -959,7 +996,7 @@
       </c>
       <c r="H10" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I10" s="6" t="inlineStr">
@@ -1001,7 +1038,7 @@
       </c>
       <c r="H11" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I11" s="6" t="inlineStr">
@@ -1043,7 +1080,7 @@
       </c>
       <c r="H12" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I12" s="6" t="inlineStr">
@@ -1085,7 +1122,7 @@
       </c>
       <c r="H13" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I13" s="6" t="inlineStr">
@@ -1127,7 +1164,7 @@
       </c>
       <c r="H14" s="24" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Server, 'faultstring': 手机号码错误}</t>
+          <t>{'faultcode': 'soap:Server', 'faultstring': '手机号码错误'}</t>
         </is>
       </c>
       <c r="I14" s="6" t="inlineStr">
@@ -1169,7 +1206,7 @@
       </c>
       <c r="H15" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I15" s="6" t="inlineStr">
@@ -1211,7 +1248,7 @@
       </c>
       <c r="H16" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I16" s="6" t="inlineStr">
@@ -1253,7 +1290,7 @@
       </c>
       <c r="H17" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I17" s="6" t="inlineStr">
@@ -1295,7 +1332,7 @@
       </c>
       <c r="H18" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I18" s="6" t="inlineStr">
@@ -1337,7 +1374,7 @@
       </c>
       <c r="H19" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I19" s="6" t="inlineStr">
@@ -1379,7 +1416,7 @@
       </c>
       <c r="H20" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I20" s="6" t="inlineStr">
@@ -1421,7 +1458,7 @@
       </c>
       <c r="H21" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I21" s="6" t="inlineStr">
@@ -1463,7 +1500,7 @@
       </c>
       <c r="H22" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I22" s="6" t="inlineStr">
@@ -1505,7 +1542,7 @@
       </c>
       <c r="H23" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I23" s="6" t="inlineStr">
@@ -1548,7 +1585,7 @@
       </c>
       <c r="H24" s="24" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Server, 'faultstring': 手机号码错误}</t>
+          <t>{'faultcode': 'soap:Server', 'faultstring': '手机号码错误'}</t>
         </is>
       </c>
       <c r="I24" s="6" t="inlineStr">
@@ -1590,7 +1627,7 @@
       </c>
       <c r="H25" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I25" s="6" t="inlineStr">
@@ -1632,7 +1669,7 @@
       </c>
       <c r="H26" s="24" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Server, 'faultstring': 手机号码错误}</t>
+          <t>{'faultcode': 'soap:Server', 'faultstring': '手机号码错误'}</t>
         </is>
       </c>
       <c r="I26" s="6" t="inlineStr">
@@ -1674,7 +1711,7 @@
       </c>
       <c r="H27" s="24" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Server, 'faultstring': 手机号码错误}</t>
+          <t>{'faultcode': 'soap:Server', 'faultstring': '手机号码错误'}</t>
         </is>
       </c>
       <c r="I27" s="6" t="inlineStr">
@@ -1716,7 +1753,7 @@
       </c>
       <c r="H28" s="24" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Server, 'faultstring': 手机号码错误}</t>
+          <t>{'faultcode': 'soap:Server', 'faultstring': '手机号码错误'}</t>
         </is>
       </c>
       <c r="I28" s="6" t="inlineStr">
@@ -1758,7 +1795,7 @@
       </c>
       <c r="H29" s="24" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Server, 'faultstring': 手机号码错误}</t>
+          <t>{'faultcode': 'soap:Server', 'faultstring': '手机号码错误'}</t>
         </is>
       </c>
       <c r="I29" s="6" t="inlineStr">
@@ -1800,7 +1837,7 @@
       </c>
       <c r="H30" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I30" s="6" t="inlineStr">
@@ -1842,7 +1879,7 @@
       </c>
       <c r="H31" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I31" s="6" t="inlineStr">
@@ -1884,7 +1921,7 @@
       </c>
       <c r="H32" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I32" s="6" t="inlineStr">
@@ -1926,7 +1963,7 @@
       </c>
       <c r="H33" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I33" s="6" t="inlineStr">
@@ -1968,7 +2005,7 @@
       </c>
       <c r="H34" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I34" s="6" t="inlineStr">
@@ -2010,7 +2047,7 @@
       </c>
       <c r="H35" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I35" s="6" t="inlineStr">
@@ -2052,7 +2089,7 @@
       </c>
       <c r="H36" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I36" s="6" t="inlineStr">
@@ -2094,7 +2131,7 @@
       </c>
       <c r="H37" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I37" s="6" t="inlineStr">
@@ -2136,7 +2173,7 @@
       </c>
       <c r="H38" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I38" s="6" t="inlineStr">
@@ -2178,7 +2215,7 @@
       </c>
       <c r="H39" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I39" s="6" t="inlineStr">
@@ -2220,7 +2257,7 @@
       </c>
       <c r="H40" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I40" s="6" t="inlineStr">
@@ -2262,7 +2299,7 @@
       </c>
       <c r="H41" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I41" s="6" t="inlineStr">
@@ -2304,7 +2341,7 @@
       </c>
       <c r="H42" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I42" s="6" t="inlineStr">
@@ -2346,7 +2383,7 @@
       </c>
       <c r="H43" s="24" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Server, 'faultstring': 手机号码错误}</t>
+          <t>{'faultcode': 'soap:Server', 'faultstring': '手机号码错误'}</t>
         </is>
       </c>
       <c r="I43" s="6" t="inlineStr">
@@ -2388,7 +2425,7 @@
       </c>
       <c r="H44" s="24" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Server, 'faultstring': 手机号码错误}</t>
+          <t>{'faultcode': 'soap:Server', 'faultstring': '手机号码错误'}</t>
         </is>
       </c>
       <c r="I44" s="6" t="inlineStr">
@@ -2425,12 +2462,12 @@
       </c>
       <c r="G45" s="9" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Server, 'faultstring': ip非法}</t>
+          <t>{'faultcode': 'soap:Server', 'faultstring': 'ip非法'}</t>
         </is>
       </c>
       <c r="H45" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I45" s="6" t="inlineStr">
@@ -2467,12 +2504,12 @@
       </c>
       <c r="G46" s="9" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Server, 'faultstring': ip非法}</t>
+          <t>{'faultcode': 'soap:Server', 'faultstring': 'ip非法'}</t>
         </is>
       </c>
       <c r="H46" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I46" s="6" t="inlineStr">
@@ -2509,12 +2546,12 @@
       </c>
       <c r="G47" s="9" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Server, 'faultstring': ip非法}</t>
+          <t>{'faultcode': 'soap:Server', 'faultstring': 'ip非法'}</t>
         </is>
       </c>
       <c r="H47" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I47" s="6" t="inlineStr">
@@ -2551,12 +2588,12 @@
       </c>
       <c r="G48" s="9" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Server, 'faultstring': 短信模板配置错误}</t>
+          <t>{'faultcode': 'soap:Server', 'faultstring': '短信模板配置错误'}</t>
         </is>
       </c>
       <c r="H48" s="24" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Client, 'faultstring': Unmarshalling Error: For input string: "" }</t>
+          <t>{'faultcode': 'soap:Client', 'faultstring': 'Unmarshalling Error: For input string: "" '}</t>
         </is>
       </c>
       <c r="I48" s="6" t="inlineStr">
@@ -2592,12 +2629,12 @@
       </c>
       <c r="G49" s="9" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Server, 'faultstring': 短信模板配置错误}</t>
+          <t>{'faultcode': 'soap:Server', 'faultstring': '短信模板配置错误'}</t>
         </is>
       </c>
       <c r="H49" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I49" s="6" t="inlineStr">
@@ -2633,12 +2670,12 @@
       </c>
       <c r="G50" s="9" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Server, 'faultstring': 短信模板配置错误}</t>
+          <t>{'faultcode': 'soap:Server', 'faultstring': '短信模板配置错误'}</t>
         </is>
       </c>
       <c r="H50" s="24" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Server, 'faultstring': 短信模板配置错误}</t>
+          <t>{'faultcode': 'soap:Server', 'faultstring': '短信模板配置错误'}</t>
         </is>
       </c>
       <c r="I50" s="6" t="inlineStr">
@@ -2674,17 +2711,17 @@
       </c>
       <c r="G51" s="9" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Server, 'faultstring':'短信模板不存在}</t>
+          <t>{'faultcode': 'soap:Server', 'faultstring': '短信模板不存在'}</t>
         </is>
       </c>
       <c r="H51" s="24" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Server, 'faultstring': 短信模板不存在}</t>
+          <t>{'faultcode': 'soap:Server', 'faultstring': '短信模板不存在'}</t>
         </is>
       </c>
       <c r="I51" s="6" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -2720,7 +2757,7 @@
       </c>
       <c r="H52" s="24" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': 'ok'}</t>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
       <c r="I52" s="6" t="inlineStr">
@@ -2756,12 +2793,12 @@
       </c>
       <c r="G53" s="9" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Server, 'faultstring': 手机号码错误}</t>
+          <t>{'faultcode': 'soap:Server', 'faultstring': '手机号码错误'}</t>
         </is>
       </c>
       <c r="H53" s="24" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Server, 'faultstring': 手机号码错误}</t>
+          <t>{'faultcode': 'soap:Server', 'faultstring': '手机号码错误'}</t>
         </is>
       </c>
       <c r="I53" s="6" t="inlineStr">
@@ -2797,12 +2834,12 @@
       </c>
       <c r="G54" s="9" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Server, 'faultstring': 手机号码错误}</t>
+          <t>{'faultcode': 'soap:Server', 'faultstring': '手机号码错误'}</t>
         </is>
       </c>
       <c r="H54" s="24" t="inlineStr">
         <is>
-          <t>{'faultcode': soap:Server, 'faultstring': 手机号码错误}</t>
+          <t>{'faultcode': 'soap:Server', 'faultstring': '手机号码错误'}</t>
         </is>
       </c>
       <c r="I54" s="6" t="inlineStr">
@@ -2820,10 +2857,10 @@
     <cfRule dxfId="0" operator="containsText" priority="1" text="FAIL" type="containsText">
       <formula>NOT(ISERROR(SEARCH("FAIL",I1)))</formula>
     </cfRule>
-    <cfRule dxfId="2" operator="containsText" priority="2" text="PASS" type="containsText">
+    <cfRule dxfId="1" operator="containsText" priority="2" text="PASS" type="containsText">
       <formula>NOT(ISERROR(SEARCH("PASS",I1)))</formula>
     </cfRule>
-    <cfRule dxfId="1" operator="containsText" priority="3" text="FAIL" type="containsText">
+    <cfRule dxfId="4" operator="containsText" priority="3" text="FAIL" type="containsText">
       <formula>NOT(ISERROR(SEARCH("FAIL",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2838,11 +2875,1745 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A11" ySplit="1"/>
-      <selection activeCell="J24" pane="bottomLeft" sqref="J24"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A23" ySplit="1"/>
+      <selection activeCell="G40" pane="bottomLeft" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="22" width="8.88671875"/>
+    <col customWidth="1" max="2" min="2" style="22" width="11.88671875"/>
+    <col customWidth="1" max="3" min="3" style="22" width="27.33203125"/>
+    <col customWidth="1" max="4" min="4" style="22" width="12"/>
+    <col customWidth="1" max="5" min="5" style="22" width="24.6640625"/>
+    <col customWidth="1" max="6" min="6" style="22" width="116.109375"/>
+    <col customWidth="1" max="7" min="7" style="22" width="32.44140625"/>
+    <col customWidth="1" max="8" min="8" style="22" width="32"/>
+    <col customWidth="1" max="22" min="9" style="22" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="23" style="22" width="8.88671875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="17.4" r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>api_name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>request_data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>expected_data</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>server_return</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="2">
+      <c r="A2" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="inlineStr">
+        <is>
+          <t>注册</t>
+        </is>
+      </c>
+      <c r="C2" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段130）</t>
+        </is>
+      </c>
+      <c r="D2" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E2" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone130#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I2" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="3">
+      <c r="A3" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="n"/>
+      <c r="C3" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段131）</t>
+        </is>
+      </c>
+      <c r="D3" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E3" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone131#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I3" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="4">
+      <c r="A4" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="n"/>
+      <c r="C4" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段132）</t>
+        </is>
+      </c>
+      <c r="D4" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E4" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone132#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="5">
+      <c r="A5" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="n"/>
+      <c r="C5" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段133）</t>
+        </is>
+      </c>
+      <c r="D5" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E5" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone133#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I5" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="6">
+      <c r="A6" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="n"/>
+      <c r="C6" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段134）</t>
+        </is>
+      </c>
+      <c r="D6" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E6" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone134#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="7">
+      <c r="A7" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="n"/>
+      <c r="C7" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段135）</t>
+        </is>
+      </c>
+      <c r="D7" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E7" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone135#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="8">
+      <c r="A8" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="n"/>
+      <c r="C8" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段136）</t>
+        </is>
+      </c>
+      <c r="D8" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E8" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone136#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I8" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="9">
+      <c r="A9" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="n"/>
+      <c r="C9" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段137）</t>
+        </is>
+      </c>
+      <c r="D9" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E9" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone137#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="10">
+      <c r="A10" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="n"/>
+      <c r="C10" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段138）</t>
+        </is>
+      </c>
+      <c r="D10" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E10" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone138#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="11">
+      <c r="A11" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="n"/>
+      <c r="C11" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段139）</t>
+        </is>
+      </c>
+      <c r="D11" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E11" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone139#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I11" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="12">
+      <c r="A12" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="n"/>
+      <c r="C12" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段145）</t>
+        </is>
+      </c>
+      <c r="D12" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E12" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone145#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I12" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="13">
+      <c r="A13" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段147）</t>
+        </is>
+      </c>
+      <c r="D13" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E13" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone147#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I13" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="14">
+      <c r="A14" s="24" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="n"/>
+      <c r="C14" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段150）</t>
+        </is>
+      </c>
+      <c r="D14" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E14" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone150#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I14" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="15">
+      <c r="A15" s="24" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="n"/>
+      <c r="C15" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段151）</t>
+        </is>
+      </c>
+      <c r="D15" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E15" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone151#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I15" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="16">
+      <c r="A16" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="n"/>
+      <c r="C16" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段152）</t>
+        </is>
+      </c>
+      <c r="D16" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E16" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone152#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I16" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="17">
+      <c r="A17" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19" t="n"/>
+      <c r="C17" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段153）</t>
+        </is>
+      </c>
+      <c r="D17" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E17" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone153#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="18">
+      <c r="A18" s="24" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19" t="n"/>
+      <c r="C18" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段155）</t>
+        </is>
+      </c>
+      <c r="D18" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E18" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F18" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone155#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G18" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H18" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I18" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="19">
+      <c r="A19" s="24" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19" t="n"/>
+      <c r="C19" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段156）</t>
+        </is>
+      </c>
+      <c r="D19" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E19" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone156#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="20">
+      <c r="A20" s="24" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="n"/>
+      <c r="C20" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段157）</t>
+        </is>
+      </c>
+      <c r="D20" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E20" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F20" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone157#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G20" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H20" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I20" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="21">
+      <c r="A21" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="n"/>
+      <c r="C21" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段158）</t>
+        </is>
+      </c>
+      <c r="D21" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E21" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F21" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone158#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G21" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H21" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I21" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="22">
+      <c r="A22" s="24" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="n"/>
+      <c r="C22" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段159）</t>
+        </is>
+      </c>
+      <c r="D22" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E22" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F22" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone159#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G22" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H22" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I22" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="23">
+      <c r="A23" s="24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="n"/>
+      <c r="C23" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段170）</t>
+        </is>
+      </c>
+      <c r="D23" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E23" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F23" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone170#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G23" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H23" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I23" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="24">
+      <c r="A24" s="24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="n"/>
+      <c r="C24" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段176）</t>
+        </is>
+      </c>
+      <c r="D24" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E24" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F24" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone176#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G24" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H24" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I24" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="25">
+      <c r="A25" s="24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19" t="n"/>
+      <c r="C25" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段177）</t>
+        </is>
+      </c>
+      <c r="D25" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E25" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F25" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone177#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G25" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H25" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I25" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="26">
+      <c r="A26" s="24" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19" t="n"/>
+      <c r="C26" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段178）</t>
+        </is>
+      </c>
+      <c r="D26" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E26" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F26" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone178#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G26" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H26" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I26" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="27">
+      <c r="A27" s="24" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19" t="n"/>
+      <c r="C27" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段180）</t>
+        </is>
+      </c>
+      <c r="D27" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E27" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F27" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone180#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G27" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H27" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I27" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="28">
+      <c r="A28" s="24" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19" t="n"/>
+      <c r="C28" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段181）</t>
+        </is>
+      </c>
+      <c r="D28" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E28" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F28" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone181#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G28" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H28" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I28" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="29">
+      <c r="A29" s="24" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19" t="n"/>
+      <c r="C29" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段182）</t>
+        </is>
+      </c>
+      <c r="D29" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E29" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F29" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone182#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G29" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H29" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I29" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="30">
+      <c r="A30" s="24" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19" t="n"/>
+      <c r="C30" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段183）</t>
+        </is>
+      </c>
+      <c r="D30" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E30" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F30" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone183#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G30" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H30" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I30" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="31">
+      <c r="A31" s="24" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="19" t="n"/>
+      <c r="C31" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段184）</t>
+        </is>
+      </c>
+      <c r="D31" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E31" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F31" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone184#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G31" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H31" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I31" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="32">
+      <c r="A32" s="24" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="19" t="n"/>
+      <c r="C32" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段185）</t>
+        </is>
+      </c>
+      <c r="D32" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E32" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F32" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone185#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G32" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H32" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I32" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="33">
+      <c r="A33" s="24" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="19" t="n"/>
+      <c r="C33" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段186）</t>
+        </is>
+      </c>
+      <c r="D33" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E33" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F33" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone186#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G33" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H33" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I33" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="34">
+      <c r="A34" s="24" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="19" t="n"/>
+      <c r="C34" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段187）</t>
+        </is>
+      </c>
+      <c r="D34" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E34" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F34" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"2","pwd":"123456", 'mobile':'#phone187#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G34" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H34" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I34" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="35">
+      <c r="A35" s="24" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="19" t="n"/>
+      <c r="C35" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段188）</t>
+        </is>
+      </c>
+      <c r="D35" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E35" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F35" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"3","pwd":"123456", 'mobile':'#phone188#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G35" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H35" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I35" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="36">
+      <c r="A36" s="24" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="19" t="n"/>
+      <c r="C36" s="24" t="inlineStr">
+        <is>
+          <t>正常注册（手机号段189）</t>
+        </is>
+      </c>
+      <c r="D36" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E36" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F36" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone189#',"ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G36" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H36" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I36" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="37">
+      <c r="A37" s="24" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="19" t="n"/>
+      <c r="C37" s="24" t="inlineStr">
+        <is>
+          <t>验证码错误</t>
+        </is>
+      </c>
+      <c r="D37" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E37" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F37" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"111111", "user_id":"name","channel_id":"3","pwd":"123456","mobile":"#phone130#","ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G37" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '30010008', 'retInfo': '验证码错误'}</t>
+        </is>
+      </c>
+      <c r="H37" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 30010008, 'retInfo': 验证码错误}</t>
+        </is>
+      </c>
+      <c r="I37" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="38">
+      <c r="A38" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="19" t="n"/>
+      <c r="C38" s="24" t="inlineStr">
+        <is>
+          <t>验证码5位数</t>
+        </is>
+      </c>
+      <c r="D38" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E38" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F38" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"11356", "user_id":"name","channel_id":"3","pwd":"123456","mobile":"#phone131#","ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G38" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '30010008', 'retInfo': '验证码错误'}</t>
+        </is>
+      </c>
+      <c r="H38" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 30010008, 'retInfo': 验证码错误}</t>
+        </is>
+      </c>
+      <c r="I38" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="39">
+      <c r="A39" s="24" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="19" t="n"/>
+      <c r="C39" s="24" t="inlineStr">
+        <is>
+          <t>验证码7位数</t>
+        </is>
+      </c>
+      <c r="D39" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E39" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F39" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"7376898", "user_id":"name","channel_id":"3","pwd":"123456","mobile":"#phone132#","ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G39" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '30010008', 'retInfo': '验证码错误'}</t>
+        </is>
+      </c>
+      <c r="H39" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 30010008, 'retInfo': 验证码错误}</t>
+        </is>
+      </c>
+      <c r="I39" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="40">
+      <c r="A40" s="24" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="19" t="n"/>
+      <c r="C40" s="24" t="inlineStr">
+        <is>
+          <t>验证码包含字母</t>
+        </is>
+      </c>
+      <c r="D40" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E40" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F40" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"a34265", "user_id":"name","channel_id":"3","pwd":"123456","mobile":"#phone133#","ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G40" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '30010008', 'retInfo': '验证码错误'}</t>
+        </is>
+      </c>
+      <c r="H40" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 30010008, 'retInfo': 验证码错误}</t>
+        </is>
+      </c>
+      <c r="I40" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="41">
+      <c r="A41" s="24" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="20" t="n"/>
+      <c r="C41" s="24" t="inlineStr">
+        <is>
+          <t>用户名为空</t>
+        </is>
+      </c>
+      <c r="D41" s="24" t="inlineStr">
+        <is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="E41" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F41" s="6" t="inlineStr">
+        <is>
+          <t>{"verify_code":"mcode", "user_id":"name","channel_id":"3","pwd":"123456","mobile":"#phone135#","ip":"$ip"}</t>
+        </is>
+      </c>
+      <c r="G41" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H41" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I41" s="24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B41"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule dxfId="1" operator="containsText" priority="1" text="PASS" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("PASS",I1)))</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="containsText" priority="2" text="FAIL" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("FAIL",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="A1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
@@ -2856,11 +4627,11 @@
     <col customWidth="1" max="8" min="7" style="22" width="32.44140625"/>
     <col customWidth="1" max="9" min="9" style="22" width="8.88671875"/>
     <col customWidth="1" max="10" min="10" style="22" width="27"/>
-    <col customWidth="1" max="184" min="11" style="22" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="185" style="22" width="8.88671875"/>
+    <col customWidth="1" max="24" min="11" style="22" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="25" style="22" width="8.88671875"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row customHeight="1" ht="17.4" r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -2912,7 +4683,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row customHeight="1" ht="17.4" r="2">
       <c r="A2" s="24" t="n">
         <v>1</v>
       </c>
@@ -2938,7 +4709,7 @@
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone130#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G2" s="6" t="inlineStr">
@@ -2951,18 +4722,14 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I2" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I2" s="6" t="n"/>
       <c r="J2" s="10" t="inlineStr">
         <is>
-          <t>13062809751</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+          <t>13098913059</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="3">
       <c r="A3" s="24" t="n">
         <v>2</v>
       </c>
@@ -2984,7 +4751,7 @@
       </c>
       <c r="F3" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone131#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G3" s="6" t="inlineStr">
@@ -2997,18 +4764,14 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I3" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I3" s="6" t="n"/>
       <c r="J3" s="10" t="inlineStr">
         <is>
-          <t>13183566991</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+          <t>13142341230</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="4">
       <c r="A4" s="24" t="n">
         <v>3</v>
       </c>
@@ -3030,7 +4793,7 @@
       </c>
       <c r="F4" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone132#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G4" s="6" t="inlineStr">
@@ -3043,18 +4806,14 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I4" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I4" s="6" t="n"/>
       <c r="J4" s="10" t="inlineStr">
         <is>
-          <t>13278208599</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+          <t>13269506709</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="5">
       <c r="A5" s="24" t="n">
         <v>4</v>
       </c>
@@ -3076,7 +4835,7 @@
       </c>
       <c r="F5" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G5" s="6" t="inlineStr">
@@ -3089,18 +4848,14 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I5" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I5" s="6" t="n"/>
       <c r="J5" s="10" t="inlineStr">
         <is>
-          <t>13302307582</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+          <t>13348233962</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="6">
       <c r="A6" s="24" t="n">
         <v>5</v>
       </c>
@@ -3122,7 +4877,7 @@
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G6" s="6" t="inlineStr">
@@ -3135,18 +4890,14 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I6" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I6" s="6" t="n"/>
       <c r="J6" s="10" t="inlineStr">
         <is>
-          <t>13405472110</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+          <t>13400352159</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="7">
       <c r="A7" s="24" t="n">
         <v>6</v>
       </c>
@@ -3168,7 +4919,7 @@
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G7" s="6" t="inlineStr">
@@ -3181,18 +4932,14 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I7" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I7" s="6" t="n"/>
       <c r="J7" s="10" t="inlineStr">
         <is>
-          <t>13572091522</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+          <t>13502164290</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="8">
       <c r="A8" s="24" t="n">
         <v>7</v>
       </c>
@@ -3214,7 +4961,7 @@
       </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G8" s="6" t="inlineStr">
@@ -3227,18 +4974,14 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I8" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I8" s="6" t="n"/>
       <c r="J8" s="10" t="inlineStr">
         <is>
-          <t>13649010601</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+          <t>13656179728</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="9">
       <c r="A9" s="24" t="n">
         <v>8</v>
       </c>
@@ -3260,7 +5003,7 @@
       </c>
       <c r="F9" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G9" s="6" t="inlineStr">
@@ -3273,18 +5016,14 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I9" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I9" s="6" t="n"/>
       <c r="J9" s="10" t="inlineStr">
         <is>
-          <t>13724170501</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+          <t>13729012525</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="10">
       <c r="A10" s="24" t="n">
         <v>9</v>
       </c>
@@ -3306,7 +5045,7 @@
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G10" s="6" t="inlineStr">
@@ -3319,18 +5058,14 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I10" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I10" s="6" t="n"/>
       <c r="J10" s="10" t="inlineStr">
         <is>
-          <t>13810362429</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+          <t>13870935408</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="11">
       <c r="A11" s="24" t="n">
         <v>10</v>
       </c>
@@ -3352,7 +5087,7 @@
       </c>
       <c r="F11" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G11" s="6" t="inlineStr">
@@ -3365,18 +5100,14 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I11" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I11" s="6" t="n"/>
       <c r="J11" s="10" t="inlineStr">
         <is>
-          <t>13958037814</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+          <t>13945079330</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="12">
       <c r="A12" s="24" t="n">
         <v>11</v>
       </c>
@@ -3398,7 +5129,7 @@
       </c>
       <c r="F12" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G12" s="6" t="inlineStr">
@@ -3411,18 +5142,14 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I12" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I12" s="6" t="n"/>
       <c r="J12" s="10" t="inlineStr">
         <is>
-          <t>14520114895</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+          <t>14568879424</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="13">
       <c r="A13" s="24" t="n">
         <v>12</v>
       </c>
@@ -3444,7 +5171,7 @@
       </c>
       <c r="F13" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G13" s="6" t="inlineStr">
@@ -3457,25 +5184,21 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I13" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I13" s="6" t="n"/>
       <c r="J13" s="10" t="inlineStr">
         <is>
-          <t>14797488255</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+          <t>14737353666</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="14">
       <c r="A14" s="24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="19" t="n"/>
       <c r="C14" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段149）</t>
+          <t>正常注册（手机号段150）</t>
         </is>
       </c>
       <c r="D14" s="24" t="inlineStr">
@@ -3490,7 +5213,7 @@
       </c>
       <c r="F14" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G14" s="6" t="inlineStr">
@@ -3498,22 +5221,26 @@
           <t>{'retCode': '0', 'retInfo': 'ok'}</t>
         </is>
       </c>
-      <c r="H14" s="6" t="n"/>
-      <c r="I14" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J14" s="10" t="n"/>
-    </row>
-    <row r="15">
+      <c r="H14" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I14" s="6" t="n"/>
+      <c r="J14" s="10" t="inlineStr">
+        <is>
+          <t>15058360848</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="15">
       <c r="A15" s="24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="19" t="n"/>
       <c r="C15" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段150）</t>
+          <t>正常注册（手机号段151）</t>
         </is>
       </c>
       <c r="D15" s="24" t="inlineStr">
@@ -3528,7 +5255,7 @@
       </c>
       <c r="F15" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G15" s="6" t="inlineStr">
@@ -3541,25 +5268,21 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I15" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I15" s="6" t="n"/>
       <c r="J15" s="10" t="inlineStr">
         <is>
-          <t>15001119210</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+          <t>15138986971</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="16">
       <c r="A16" s="24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="19" t="n"/>
       <c r="C16" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段151）</t>
+          <t>正常注册（手机号段152）</t>
         </is>
       </c>
       <c r="D16" s="24" t="inlineStr">
@@ -3574,7 +5297,7 @@
       </c>
       <c r="F16" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G16" s="6" t="inlineStr">
@@ -3587,25 +5310,21 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I16" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I16" s="6" t="n"/>
       <c r="J16" s="10" t="inlineStr">
         <is>
-          <t>15112392363</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+          <t>15291562533</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="17">
       <c r="A17" s="24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="19" t="n"/>
       <c r="C17" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段152）</t>
+          <t>正常注册（手机号段153）</t>
         </is>
       </c>
       <c r="D17" s="24" t="inlineStr">
@@ -3620,7 +5339,7 @@
       </c>
       <c r="F17" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G17" s="6" t="inlineStr">
@@ -3633,25 +5352,21 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I17" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I17" s="6" t="n"/>
       <c r="J17" s="10" t="inlineStr">
         <is>
-          <t>15210145215</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+          <t>15360534436</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="18">
       <c r="A18" s="24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="19" t="n"/>
       <c r="C18" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段153）</t>
+          <t>正常注册（手机号段155）</t>
         </is>
       </c>
       <c r="D18" s="24" t="inlineStr">
@@ -3666,7 +5381,7 @@
       </c>
       <c r="F18" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G18" s="6" t="inlineStr">
@@ -3679,25 +5394,21 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I18" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I18" s="6" t="n"/>
       <c r="J18" s="10" t="inlineStr">
         <is>
-          <t>15347426061</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+          <t>15522930606</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="19">
       <c r="A19" s="24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="19" t="n"/>
       <c r="C19" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段155）</t>
+          <t>正常注册（手机号段156）</t>
         </is>
       </c>
       <c r="D19" s="24" t="inlineStr">
@@ -3712,7 +5423,7 @@
       </c>
       <c r="F19" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G19" s="6" t="inlineStr">
@@ -3725,25 +5436,21 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I19" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I19" s="6" t="n"/>
       <c r="J19" s="10" t="inlineStr">
         <is>
-          <t>15531931491</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
+          <t>15645236302</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="20">
       <c r="A20" s="24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="19" t="n"/>
       <c r="C20" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段156）</t>
+          <t>正常注册（手机号段157）</t>
         </is>
       </c>
       <c r="D20" s="24" t="inlineStr">
@@ -3758,7 +5465,7 @@
       </c>
       <c r="F20" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G20" s="6" t="inlineStr">
@@ -3771,25 +5478,21 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I20" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I20" s="6" t="n"/>
       <c r="J20" s="10" t="inlineStr">
         <is>
-          <t>15659384611</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
+          <t>15784834101</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="21">
       <c r="A21" s="24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="19" t="n"/>
       <c r="C21" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段157）</t>
+          <t>正常注册（手机号段158）</t>
         </is>
       </c>
       <c r="D21" s="24" t="inlineStr">
@@ -3804,7 +5507,7 @@
       </c>
       <c r="F21" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G21" s="6" t="inlineStr">
@@ -3817,25 +5520,21 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I21" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I21" s="6" t="n"/>
       <c r="J21" s="10" t="inlineStr">
         <is>
-          <t>15766199969</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
+          <t>15822613898</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="22">
       <c r="A22" s="24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="19" t="n"/>
       <c r="C22" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段158）</t>
+          <t>正常注册（手机号段159）</t>
         </is>
       </c>
       <c r="D22" s="24" t="inlineStr">
@@ -3850,7 +5549,7 @@
       </c>
       <c r="F22" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G22" s="6" t="inlineStr">
@@ -3863,25 +5562,21 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I22" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I22" s="6" t="n"/>
       <c r="J22" s="10" t="inlineStr">
         <is>
-          <t>15818562896</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
+          <t>15924396253</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="23">
       <c r="A23" s="24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="19" t="n"/>
       <c r="C23" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段159）</t>
+          <t>正常注册（手机号段170）</t>
         </is>
       </c>
       <c r="D23" s="24" t="inlineStr">
@@ -3896,7 +5591,7 @@
       </c>
       <c r="F23" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G23" s="6" t="inlineStr">
@@ -3909,25 +5604,21 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I23" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I23" s="6" t="n"/>
       <c r="J23" s="10" t="inlineStr">
         <is>
-          <t>15959447001</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
+          <t>17042303635</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="24">
       <c r="A24" s="24" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B24" s="19" t="n"/>
       <c r="C24" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段166）</t>
+          <t>正常注册（手机号段176）</t>
         </is>
       </c>
       <c r="D24" s="24" t="inlineStr">
@@ -3942,7 +5633,7 @@
       </c>
       <c r="F24" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G24" s="6" t="inlineStr">
@@ -3950,22 +5641,26 @@
           <t>{'retCode': '0', 'retInfo': 'ok'}</t>
         </is>
       </c>
-      <c r="H24" s="6" t="n"/>
-      <c r="I24" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J24" s="10" t="n"/>
-    </row>
-    <row r="25">
+      <c r="H24" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I24" s="6" t="n"/>
+      <c r="J24" s="10" t="inlineStr">
+        <is>
+          <t>17648717605</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="25">
       <c r="A25" s="24" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B25" s="19" t="n"/>
       <c r="C25" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段170）</t>
+          <t>正常注册（手机号段177）</t>
         </is>
       </c>
       <c r="D25" s="24" t="inlineStr">
@@ -3980,7 +5675,7 @@
       </c>
       <c r="F25" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G25" s="6" t="inlineStr">
@@ -3993,25 +5688,21 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I25" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I25" s="6" t="n"/>
       <c r="J25" s="10" t="inlineStr">
         <is>
-          <t>17057928877</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
+          <t>17776111058</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="26">
       <c r="A26" s="24" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B26" s="19" t="n"/>
       <c r="C26" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段171）</t>
+          <t>正常注册（手机号段178）</t>
         </is>
       </c>
       <c r="D26" s="24" t="inlineStr">
@@ -4026,7 +5717,7 @@
       </c>
       <c r="F26" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G26" s="6" t="inlineStr">
@@ -4034,18 +5725,26 @@
           <t>{'retCode': '0', 'retInfo': 'ok'}</t>
         </is>
       </c>
-      <c r="H26" s="6" t="n"/>
+      <c r="H26" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
       <c r="I26" s="6" t="n"/>
-      <c r="J26" s="10" t="n"/>
-    </row>
-    <row r="27">
+      <c r="J26" s="10" t="inlineStr">
+        <is>
+          <t>17809844562</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="27">
       <c r="A27" s="24" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B27" s="19" t="n"/>
       <c r="C27" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段172）</t>
+          <t>正常注册（手机号段180）</t>
         </is>
       </c>
       <c r="D27" s="24" t="inlineStr">
@@ -4060,7 +5759,7 @@
       </c>
       <c r="F27" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G27" s="6" t="inlineStr">
@@ -4068,18 +5767,26 @@
           <t>{'retCode': '0', 'retInfo': 'ok'}</t>
         </is>
       </c>
-      <c r="H27" s="6" t="n"/>
+      <c r="H27" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
       <c r="I27" s="6" t="n"/>
-      <c r="J27" s="10" t="n"/>
-    </row>
-    <row r="28">
+      <c r="J27" s="10" t="inlineStr">
+        <is>
+          <t>18099381178</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="28">
       <c r="A28" s="24" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B28" s="19" t="n"/>
       <c r="C28" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段173）</t>
+          <t>正常注册（手机号段181）</t>
         </is>
       </c>
       <c r="D28" s="24" t="inlineStr">
@@ -4094,7 +5801,7 @@
       </c>
       <c r="F28" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G28" s="6" t="inlineStr">
@@ -4102,18 +5809,26 @@
           <t>{'retCode': '0', 'retInfo': 'ok'}</t>
         </is>
       </c>
-      <c r="H28" s="6" t="n"/>
+      <c r="H28" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
       <c r="I28" s="6" t="n"/>
-      <c r="J28" s="10" t="n"/>
-    </row>
-    <row r="29">
+      <c r="J28" s="10" t="inlineStr">
+        <is>
+          <t>18143221734</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="29">
       <c r="A29" s="24" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B29" s="19" t="n"/>
       <c r="C29" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段175）</t>
+          <t>正常注册（手机号段182）</t>
         </is>
       </c>
       <c r="D29" s="24" t="inlineStr">
@@ -4128,7 +5843,7 @@
       </c>
       <c r="F29" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G29" s="6" t="inlineStr">
@@ -4136,22 +5851,26 @@
           <t>{'retCode': '0', 'retInfo': 'ok'}</t>
         </is>
       </c>
-      <c r="H29" s="6" t="n"/>
-      <c r="I29" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J29" s="10" t="n"/>
-    </row>
-    <row r="30">
+      <c r="H29" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 0, 'retInfo': ok}</t>
+        </is>
+      </c>
+      <c r="I29" s="6" t="n"/>
+      <c r="J29" s="10" t="inlineStr">
+        <is>
+          <t>18229734742</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="30">
       <c r="A30" s="24" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B30" s="19" t="n"/>
       <c r="C30" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段176）</t>
+          <t>正常注册（手机号段183）</t>
         </is>
       </c>
       <c r="D30" s="24" t="inlineStr">
@@ -4166,7 +5885,7 @@
       </c>
       <c r="F30" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G30" s="6" t="inlineStr">
@@ -4179,25 +5898,21 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I30" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I30" s="6" t="n"/>
       <c r="J30" s="10" t="inlineStr">
         <is>
-          <t>17679511863</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
+          <t>18398161773</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="31">
       <c r="A31" s="24" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B31" s="19" t="n"/>
       <c r="C31" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段177）</t>
+          <t>正常注册（手机号段184）</t>
         </is>
       </c>
       <c r="D31" s="24" t="inlineStr">
@@ -4212,7 +5927,7 @@
       </c>
       <c r="F31" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G31" s="6" t="inlineStr">
@@ -4225,25 +5940,21 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I31" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I31" s="6" t="n"/>
       <c r="J31" s="10" t="inlineStr">
         <is>
-          <t>17708426731</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
+          <t>18484529310</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="32">
       <c r="A32" s="24" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B32" s="19" t="n"/>
       <c r="C32" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段178）</t>
+          <t>正常注册（手机号段185）</t>
         </is>
       </c>
       <c r="D32" s="24" t="inlineStr">
@@ -4258,7 +5969,7 @@
       </c>
       <c r="F32" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G32" s="6" t="inlineStr">
@@ -4271,25 +5982,21 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I32" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I32" s="6" t="n"/>
       <c r="J32" s="10" t="inlineStr">
         <is>
-          <t>17851790614</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
+          <t>18572975228</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="33">
       <c r="A33" s="24" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B33" s="19" t="n"/>
       <c r="C33" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段180）</t>
+          <t>正常注册（手机号段186）</t>
         </is>
       </c>
       <c r="D33" s="24" t="inlineStr">
@@ -4304,7 +6011,7 @@
       </c>
       <c r="F33" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G33" s="6" t="inlineStr">
@@ -4317,25 +6024,21 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I33" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I33" s="6" t="n"/>
       <c r="J33" s="10" t="inlineStr">
         <is>
-          <t>18049443543</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
+          <t>18670601940</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="34">
       <c r="A34" s="24" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B34" s="19" t="n"/>
       <c r="C34" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段181）</t>
+          <t>正常注册（手机号段187）</t>
         </is>
       </c>
       <c r="D34" s="24" t="inlineStr">
@@ -4350,7 +6053,7 @@
       </c>
       <c r="F34" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"name","channel_id":"2","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G34" s="6" t="inlineStr">
@@ -4363,25 +6066,21 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I34" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I34" s="6" t="n"/>
       <c r="J34" s="10" t="inlineStr">
         <is>
-          <t>18154066015</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
+          <t>18782085281</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="35">
       <c r="A35" s="24" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B35" s="19" t="n"/>
       <c r="C35" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段182）</t>
+          <t>正常注册（手机号段188）</t>
         </is>
       </c>
       <c r="D35" s="24" t="inlineStr">
@@ -4396,7 +6095,7 @@
       </c>
       <c r="F35" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"keen","channel_id":"3","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G35" s="6" t="inlineStr">
@@ -4409,25 +6108,21 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I35" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I35" s="6" t="n"/>
       <c r="J35" s="10" t="inlineStr">
         <is>
-          <t>18224280094</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
+          <t>18801802158</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="36">
       <c r="A36" s="24" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B36" s="19" t="n"/>
       <c r="C36" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段183）</t>
+          <t>正常注册（手机号段189）</t>
         </is>
       </c>
       <c r="D36" s="24" t="inlineStr">
@@ -4442,7 +6137,7 @@
       </c>
       <c r="F36" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"#mcode#", "user_id":"张大仙","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
         </is>
       </c>
       <c r="G36" s="6" t="inlineStr">
@@ -4455,25 +6150,21 @@
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I36" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="I36" s="6" t="n"/>
       <c r="J36" s="10" t="inlineStr">
         <is>
-          <t>18315824733</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
+          <t>18961162391</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="37">
       <c r="A37" s="24" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B37" s="19" t="n"/>
       <c r="C37" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段184）</t>
+          <t>验证码错误</t>
         </is>
       </c>
       <c r="D37" s="24" t="inlineStr">
@@ -4488,38 +6179,30 @@
       </c>
       <c r="F37" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"111111", "user_id":"name","channel_id":"3","pwd":"123456","mobile":"#phone130#","ip":"$ip"}</t>
         </is>
       </c>
       <c r="G37" s="6" t="inlineStr">
         <is>
-          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+          <t>{'retCode': '19001', 'retInfo': '手机号错误'}</t>
         </is>
       </c>
       <c r="H37" s="6" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': ok}</t>
-        </is>
-      </c>
-      <c r="I37" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J37" s="10" t="inlineStr">
-        <is>
-          <t>18496041457</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
+          <t>{'retCode': 19001, 'retInfo': 手机号错误}</t>
+        </is>
+      </c>
+      <c r="I37" s="24" t="n"/>
+      <c r="J37" s="10" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.4" r="38">
       <c r="A38" s="24" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B38" s="19" t="n"/>
       <c r="C38" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段185）</t>
+          <t>验证码5位数</t>
         </is>
       </c>
       <c r="D38" s="24" t="inlineStr">
@@ -4534,38 +6217,30 @@
       </c>
       <c r="F38" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"11356", "user_id":"name","channel_id":"3","pwd":"123456","mobile":"#phone130#","ip":"$ip"}</t>
         </is>
       </c>
       <c r="G38" s="6" t="inlineStr">
         <is>
-          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+          <t>{'retCode': '19001', 'retInfo': '手机号错误'}</t>
         </is>
       </c>
       <c r="H38" s="6" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': ok}</t>
-        </is>
-      </c>
-      <c r="I38" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J38" s="10" t="inlineStr">
-        <is>
-          <t>18594166833</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
+          <t>{'retCode': 19001, 'retInfo': 手机号错误}</t>
+        </is>
+      </c>
+      <c r="I38" s="24" t="n"/>
+      <c r="J38" s="10" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.4" r="39">
       <c r="A39" s="24" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B39" s="19" t="n"/>
       <c r="C39" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段186）</t>
+          <t>验证码7位数</t>
         </is>
       </c>
       <c r="D39" s="24" t="inlineStr">
@@ -4580,38 +6255,30 @@
       </c>
       <c r="F39" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"7376898", "user_id":"name","channel_id":"3","pwd":"123456","mobile":"#phone130#","ip":"$ip"}</t>
         </is>
       </c>
       <c r="G39" s="6" t="inlineStr">
         <is>
-          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+          <t>{'retCode': '19001', 'retInfo': '手机号错误'}</t>
         </is>
       </c>
       <c r="H39" s="6" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': ok}</t>
-        </is>
-      </c>
-      <c r="I39" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J39" s="10" t="inlineStr">
-        <is>
-          <t>18605041764</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
+          <t>{'retCode': 19001, 'retInfo': 手机号错误}</t>
+        </is>
+      </c>
+      <c r="I39" s="24" t="n"/>
+      <c r="J39" s="10" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.4" r="40">
       <c r="A40" s="24" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B40" s="19" t="n"/>
       <c r="C40" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段187）</t>
+          <t>验证码包含字母</t>
         </is>
       </c>
       <c r="D40" s="24" t="inlineStr">
@@ -4626,38 +6293,30 @@
       </c>
       <c r="F40" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":"a34265", "user_id":"name","channel_id":"3","pwd":"123456","mobile":"#phone130#","ip":"$ip"}</t>
         </is>
       </c>
       <c r="G40" s="6" t="inlineStr">
         <is>
-          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+          <t>{'retCode': '19001', 'retInfo': '手机号错误'}</t>
         </is>
       </c>
       <c r="H40" s="6" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': ok}</t>
-        </is>
-      </c>
-      <c r="I40" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J40" s="10" t="inlineStr">
-        <is>
-          <t>18742170614</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
+          <t>{'retCode': 19001, 'retInfo': 手机号错误}</t>
+        </is>
+      </c>
+      <c r="I40" s="24" t="n"/>
+      <c r="J40" s="10" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.4" r="41">
       <c r="A41" s="24" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="19" t="n"/>
+        <v>48</v>
+      </c>
+      <c r="B41" s="20" t="n"/>
       <c r="C41" s="24" t="inlineStr">
         <is>
-          <t>正常注册（手机号段188）</t>
+          <t>用户名为空</t>
         </is>
       </c>
       <c r="D41" s="24" t="inlineStr">
@@ -4672,377 +6331,40 @@
       </c>
       <c r="F41" s="6" t="inlineStr">
         <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
+          <t>{"verify_code":135769, "user_id":"name","channel_id":"3","pwd":"123456","mobile":"#phone130#","ip":"$ip"}</t>
         </is>
       </c>
       <c r="G41" s="6" t="inlineStr">
         <is>
-          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+          <t>{'retCode': '19001', 'retInfo': '手机号错误'}</t>
         </is>
       </c>
       <c r="H41" s="6" t="inlineStr">
         <is>
-          <t>{'retCode': 0, 'retInfo': ok}</t>
-        </is>
-      </c>
-      <c r="I41" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J41" s="10" t="inlineStr">
-        <is>
-          <t>18860883547</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="24" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" s="19" t="n"/>
-      <c r="C42" s="24" t="inlineStr">
-        <is>
-          <t>正常注册（手机号段189）</t>
-        </is>
-      </c>
-      <c r="D42" s="24" t="inlineStr">
-        <is>
-          <t>userRegister</t>
-        </is>
-      </c>
-      <c r="E42" s="24" t="inlineStr">
-        <is>
-          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
-        </is>
-      </c>
-      <c r="F42" s="6" t="inlineStr">
-        <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
-        </is>
-      </c>
-      <c r="G42" s="6" t="inlineStr">
-        <is>
-          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
-        </is>
-      </c>
-      <c r="H42" s="6" t="inlineStr">
-        <is>
-          <t>{'retCode': 0, 'retInfo': ok}</t>
-        </is>
-      </c>
-      <c r="I42" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J42" s="10" t="inlineStr">
-        <is>
-          <t>18901237216</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="24" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" s="19" t="n"/>
-      <c r="C43" s="24" t="inlineStr">
-        <is>
-          <t>正常注册（手机号段198）</t>
-        </is>
-      </c>
-      <c r="D43" s="24" t="inlineStr">
-        <is>
-          <t>userRegister</t>
-        </is>
-      </c>
-      <c r="E43" s="24" t="inlineStr">
-        <is>
-          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
-        </is>
-      </c>
-      <c r="F43" s="6" t="inlineStr">
-        <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
-        </is>
-      </c>
-      <c r="G43" s="6" t="inlineStr">
-        <is>
-          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
-        </is>
-      </c>
-      <c r="H43" s="6" t="n"/>
-      <c r="I43" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="J43" s="10" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="24" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" s="19" t="n"/>
-      <c r="C44" s="24" t="inlineStr">
-        <is>
-          <t>正常注册（手机号段199）</t>
-        </is>
-      </c>
-      <c r="D44" s="24" t="inlineStr">
-        <is>
-          <t>userRegister</t>
-        </is>
-      </c>
-      <c r="E44" s="24" t="inlineStr">
-        <is>
-          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
-        </is>
-      </c>
-      <c r="F44" s="6" t="inlineStr">
-        <is>
-          <t>{"verify_code":"#mcode#", "user_id":"baozi","channel_id":"1","pwd":"123456", 'mobile':'#phone#',"ip":"$ip"}</t>
-        </is>
-      </c>
-      <c r="G44" s="6" t="inlineStr">
-        <is>
-          <t>{'retCode': '1', 'retInfo': 'ok'}</t>
-        </is>
-      </c>
-      <c r="H44" s="6" t="n"/>
-      <c r="I44" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J44" s="10" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="24" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" s="19" t="n"/>
-      <c r="C45" s="24" t="inlineStr">
-        <is>
-          <t>验证码错误</t>
-        </is>
-      </c>
-      <c r="D45" s="24" t="inlineStr">
-        <is>
-          <t>userRegister</t>
-        </is>
-      </c>
-      <c r="E45" s="24" t="inlineStr">
-        <is>
-          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
-        </is>
-      </c>
-      <c r="F45" s="6" t="inlineStr">
-        <is>
-          <t>{"verify_code":"111111", "user_id":"baozi","channel_id":"3","pwd":"123456","mobile":"#phone130#","ip":"$ip"}</t>
-        </is>
-      </c>
-      <c r="G45" s="6" t="inlineStr">
-        <is>
-          <t>{'retCode': '19001', 'retInfo': '手机号错误'}</t>
-        </is>
-      </c>
-      <c r="H45" s="6" t="inlineStr">
-        <is>
           <t>{'retCode': 19001, 'retInfo': 手机号错误}</t>
         </is>
       </c>
-      <c r="I45" s="24" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J45" s="10" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="24" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" s="19" t="n"/>
-      <c r="C46" s="24" t="inlineStr">
-        <is>
-          <t>验证码5位数</t>
-        </is>
-      </c>
-      <c r="D46" s="24" t="inlineStr">
-        <is>
-          <t>userRegister</t>
-        </is>
-      </c>
-      <c r="E46" s="24" t="inlineStr">
-        <is>
-          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
-        </is>
-      </c>
-      <c r="F46" s="6" t="inlineStr">
-        <is>
-          <t>{"verify_code":"11356", "user_id":"baozi","channel_id":"3","pwd":"123456","mobile":"#phone130#","ip":"$ip"}</t>
-        </is>
-      </c>
-      <c r="G46" s="6" t="inlineStr">
-        <is>
-          <t>{'retCode': '19001', 'retInfo': '手机号错误'}</t>
-        </is>
-      </c>
-      <c r="H46" s="6" t="inlineStr">
-        <is>
-          <t>{'retCode': 19001, 'retInfo': 手机号错误}</t>
-        </is>
-      </c>
-      <c r="I46" s="24" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J46" s="10" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="24" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" s="19" t="n"/>
-      <c r="C47" s="24" t="inlineStr">
-        <is>
-          <t>验证码7位数</t>
-        </is>
-      </c>
-      <c r="D47" s="24" t="inlineStr">
-        <is>
-          <t>userRegister</t>
-        </is>
-      </c>
-      <c r="E47" s="24" t="inlineStr">
-        <is>
-          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
-        </is>
-      </c>
-      <c r="F47" s="6" t="inlineStr">
-        <is>
-          <t>{"verify_code":"7376898", "user_id":"baozi","channel_id":"3","pwd":"123456","mobile":"#phone130#","ip":"$ip"}</t>
-        </is>
-      </c>
-      <c r="G47" s="6" t="inlineStr">
-        <is>
-          <t>{'retCode': '19001', 'retInfo': '手机号错误'}</t>
-        </is>
-      </c>
-      <c r="H47" s="6" t="inlineStr">
-        <is>
-          <t>{'retCode': 19001, 'retInfo': 手机号错误}</t>
-        </is>
-      </c>
-      <c r="I47" s="24" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J47" s="10" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="24" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" s="19" t="n"/>
-      <c r="C48" s="24" t="inlineStr">
-        <is>
-          <t>验证码包含字母</t>
-        </is>
-      </c>
-      <c r="D48" s="24" t="inlineStr">
-        <is>
-          <t>userRegister</t>
-        </is>
-      </c>
-      <c r="E48" s="24" t="inlineStr">
-        <is>
-          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
-        </is>
-      </c>
-      <c r="F48" s="6" t="inlineStr">
-        <is>
-          <t>{"verify_code":"a34265", "user_id":"baozi","channel_id":"3","pwd":"123456","mobile":"#phone130#","ip":"$ip"}</t>
-        </is>
-      </c>
-      <c r="G48" s="6" t="inlineStr">
-        <is>
-          <t>{'retCode': '19001', 'retInfo': '手机号错误'}</t>
-        </is>
-      </c>
-      <c r="H48" s="6" t="inlineStr">
-        <is>
-          <t>{'retCode': 19001, 'retInfo': 手机号错误}</t>
-        </is>
-      </c>
-      <c r="I48" s="24" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J48" s="10" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="24" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" s="20" t="n"/>
-      <c r="C49" s="24" t="inlineStr">
-        <is>
-          <t>用户名为空</t>
-        </is>
-      </c>
-      <c r="D49" s="24" t="inlineStr">
-        <is>
-          <t>userRegister</t>
-        </is>
-      </c>
-      <c r="E49" s="24" t="inlineStr">
-        <is>
-          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
-        </is>
-      </c>
-      <c r="F49" s="6" t="inlineStr">
-        <is>
-          <t>{"verify_code":135769, "user_id":"baozi","channel_id":"3","pwd":"123456","mobile":"#phone130#","ip":"$ip"}</t>
-        </is>
-      </c>
-      <c r="G49" s="6" t="inlineStr">
-        <is>
-          <t>{'retCode': '19001', 'retInfo': '手机号错误'}</t>
-        </is>
-      </c>
-      <c r="H49" s="6" t="inlineStr">
-        <is>
-          <t>{'retCode': 19001, 'retInfo': 手机号错误}</t>
-        </is>
-      </c>
-      <c r="I49" s="24" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J49" s="10" t="n"/>
-    </row>
+      <c r="I41" s="24" t="n"/>
+      <c r="J41" s="10" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.4" r="42"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:B49"/>
+    <mergeCell ref="B2:B41"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule dxfId="0" operator="containsText" priority="1" text="FAIL" type="containsText">
+    <cfRule dxfId="1" operator="containsText" priority="1" text="PASS" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("PASS",I1)))</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="containsText" priority="2" text="FAIL" type="containsText">
       <formula>NOT(ISERROR(SEARCH("FAIL",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5063,8 +6385,8 @@
     <col customWidth="1" max="5" min="5" style="22" width="24.6640625"/>
     <col customWidth="1" max="6" min="6" style="22" width="38.21875"/>
     <col customWidth="1" max="7" min="7" style="22" width="32.44140625"/>
-    <col customWidth="1" max="25" min="8" style="22" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="26" style="22" width="8.88671875"/>
+    <col customWidth="1" max="40" min="8" style="22" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="41" style="22" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5410,7 +6732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5418,8 +6740,8 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
@@ -5431,8 +6753,8 @@
     <col customWidth="1" max="5" min="5" style="22" width="24.6640625"/>
     <col customWidth="1" max="6" min="6" style="22" width="38.21875"/>
     <col customWidth="1" max="7" min="7" style="22" width="32.44140625"/>
-    <col customWidth="1" max="183" min="8" style="22" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="184" style="22" width="8.88671875"/>
+    <col customWidth="1" max="198" min="8" style="22" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="199" style="22" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7198,7 +8520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7222,8 +8544,8 @@
     <col customWidth="1" max="8" min="8" style="22" width="27.44140625"/>
     <col customWidth="1" max="9" min="9" style="22" width="42.88671875"/>
     <col customWidth="1" max="10" min="10" style="22" width="10.33203125"/>
-    <col customWidth="1" max="197" min="11" style="22" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="198" style="22" width="8.88671875"/>
+    <col customWidth="1" max="212" min="11" style="22" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="213" style="22" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8027,7 +9349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8053,8 +9375,8 @@
     <col customWidth="1" max="9" min="9" style="22" width="34.21875"/>
     <col customWidth="1" max="10" min="10" style="22" width="10.33203125"/>
     <col customWidth="1" max="11" min="11" style="4" width="29.44140625"/>
-    <col customWidth="1" max="198" min="12" style="22" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="199" style="22" width="8.88671875"/>
+    <col customWidth="1" max="213" min="12" style="22" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="214" style="22" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/data/webcase.xlsx
+++ b/data/webcase.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="15024" windowWidth="0" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="15024" windowWidth="0" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="sendMCode" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="userRegister" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="verifyUserAuth" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="verifyUserAuth" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="userRegister (2)" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="recharge" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="withdraw" sheetId="7" state="visible" r:id="rId7"/>
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -40,13 +40,6 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <family val="3"/>
       <sz val="9"/>
       <scheme val="minor"/>
     </font>
@@ -210,7 +203,7 @@
   <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
     <dxf>
       <font>
         <color auto="1"/>
@@ -228,6 +221,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -550,7 +563,7 @@
   </sheetPr>
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A26" ySplit="1"/>
       <selection activeCell="G33" pane="bottomLeft" sqref="G33"/>
     </sheetView>
@@ -566,8 +579,8 @@
     <col customWidth="1" max="7" min="7" style="22" width="32.109375"/>
     <col customWidth="1" max="8" min="8" style="12" width="57.109375"/>
     <col customWidth="1" max="9" min="9" style="22" width="10.33203125"/>
-    <col customWidth="1" max="211" min="10" style="22" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="212" style="22" width="8.88671875"/>
+    <col customWidth="1" max="213" min="10" style="22" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="214" style="22" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2860,7 +2873,7 @@
     <cfRule dxfId="1" operator="containsText" priority="2" text="PASS" type="containsText">
       <formula>NOT(ISERROR(SEARCH("PASS",I1)))</formula>
     </cfRule>
-    <cfRule dxfId="4" operator="containsText" priority="3" text="FAIL" type="containsText">
+    <cfRule dxfId="6" operator="containsText" priority="3" text="FAIL" type="containsText">
       <formula>NOT(ISERROR(SEARCH("FAIL",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2892,8 +2905,8 @@
     <col customWidth="1" max="6" min="6" style="22" width="116.109375"/>
     <col customWidth="1" max="7" min="7" style="22" width="32.44140625"/>
     <col customWidth="1" max="8" min="8" style="22" width="32"/>
-    <col customWidth="1" max="22" min="9" style="22" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="23" style="22" width="8.88671875"/>
+    <col customWidth="1" max="24" min="9" style="22" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="25" style="22" width="8.88671875"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="17.4" r="1">
@@ -4610,6 +4623,427 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="22" width="8.88671875"/>
+    <col customWidth="1" max="2" min="2" style="22" width="11.88671875"/>
+    <col customWidth="1" max="3" min="3" style="22" width="27.33203125"/>
+    <col customWidth="1" max="4" min="4" style="22" width="12"/>
+    <col customWidth="1" max="5" min="5" style="22" width="24.6640625"/>
+    <col customWidth="1" max="6" min="6" style="22" width="38.21875"/>
+    <col customWidth="1" max="8" min="7" style="22" width="32.44140625"/>
+    <col customWidth="1" max="43" min="9" style="22" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="44" style="22" width="8.88671875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>api_name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>request_data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>expected_data</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>server_return</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="inlineStr">
+        <is>
+          <t>实名认证</t>
+        </is>
+      </c>
+      <c r="C2" s="24" t="inlineStr">
+        <is>
+          <t>u_id为空</t>
+        </is>
+      </c>
+      <c r="D2" s="24" t="inlineStr">
+        <is>
+          <t>verifyUserAuth</t>
+        </is>
+      </c>
+      <c r="E2" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>{"uid":"", "true_name":"陈晶晶","cre_id":"421126198809097244"}</t>
+        </is>
+      </c>
+      <c r="G2" s="11" t="inlineStr">
+        <is>
+          <t>{'faultcode': 'soap:Client', 'faultstring': 'Unmarshalling Error: For input string:""' }</t>
+        </is>
+      </c>
+      <c r="H2" s="11" t="inlineStr">
+        <is>
+          <t>{'faultcode': soap:Client, 'faultstring': Unmarshalling Error: For input string: "" }</t>
+        </is>
+      </c>
+      <c r="I2" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="n"/>
+      <c r="C3" s="24" t="inlineStr">
+        <is>
+          <t>姓名为空</t>
+        </is>
+      </c>
+      <c r="D3" s="24" t="inlineStr">
+        <is>
+          <t>verifyUserAuth</t>
+        </is>
+      </c>
+      <c r="E3" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>{"uid":"128736679730", "true_name":" ","cre_id":"421126198809097244"}</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '19001', 'retInfo': '真实姓名错误'}</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 19001, 'retInfo': 真实姓名错误}</t>
+        </is>
+      </c>
+      <c r="I3" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="n"/>
+      <c r="C4" s="24" t="inlineStr">
+        <is>
+          <t>姓名与身份证不符</t>
+        </is>
+      </c>
+      <c r="D4" s="24" t="inlineStr">
+        <is>
+          <t>verifyUserAuth</t>
+        </is>
+      </c>
+      <c r="E4" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>{"uid":"128736679730", "true_name":"陈晶晶","cre_id":"421126198809097234"}</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '19001', 'retInfo': '身份证号检验错误'}</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 19001, 'retInfo': 身份证号检验错误}</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="n"/>
+      <c r="C5" s="24" t="inlineStr">
+        <is>
+          <t>17位身份证号</t>
+        </is>
+      </c>
+      <c r="D5" s="24" t="inlineStr">
+        <is>
+          <t>verifyUserAuth</t>
+        </is>
+      </c>
+      <c r="E5" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>{"uid":"128736679730", "true_name":"陈晶晶","cre_id":"42112619880909724"}</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '100010000', 'retInfo': '不是18位的身份证号码'}</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 100010000, 'retInfo': 不是18位的身份证号码}</t>
+        </is>
+      </c>
+      <c r="I5" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="n"/>
+      <c r="C6" s="24" t="inlineStr">
+        <is>
+          <t>19位身份证号</t>
+        </is>
+      </c>
+      <c r="D6" s="24" t="inlineStr">
+        <is>
+          <t>verifyUserAuth</t>
+        </is>
+      </c>
+      <c r="E6" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>{"uid":"128736679730", "true_name":"陈晶晶","cre_id":"4211261988090972445"}</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '19001', 'retInfo': '身份证号错误'}</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 19001, 'retInfo': 身份证号错误}</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="n"/>
+      <c r="C7" s="24" t="inlineStr">
+        <is>
+          <t>u_id为数字</t>
+        </is>
+      </c>
+      <c r="D7" s="24" t="inlineStr">
+        <is>
+          <t>verifyUserAuth</t>
+        </is>
+      </c>
+      <c r="E7" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>{"uid":128736679730, "true_name":"伊尹","cre_id":"321088200607162562"}</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 20042033, 'retInfo': 该身份证已经进行过实名认证}</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="n"/>
+      <c r="C8" s="24" t="inlineStr">
+        <is>
+          <t>正常实名认证</t>
+        </is>
+      </c>
+      <c r="D8" s="24" t="inlineStr">
+        <is>
+          <t>verifyUserAuth</t>
+        </is>
+      </c>
+      <c r="E8" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>{"uid":"128736679730", "true_name":"伊尹","cre_id":"321088200607162562"}</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 20042033, 'retInfo': 该身份证已经进行过实名认证}</t>
+        </is>
+      </c>
+      <c r="I8" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="n"/>
+      <c r="C9" s="24" t="inlineStr">
+        <is>
+          <t>u_id未注册</t>
+        </is>
+      </c>
+      <c r="D9" s="24" t="inlineStr">
+        <is>
+          <t>verifyUserAuth</t>
+        </is>
+      </c>
+      <c r="E9" s="24" t="inlineStr">
+        <is>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>{"uid":"0000", "true_name":"陈晶晶","cre_id":"421126198809097244"}</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': '20042002', 'retInfo': '用户不存在'}</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>{'retCode': 20042002, 'retInfo': 用户不存在}</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule dxfId="0" operator="containsText" priority="1" text="FAIL" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("FAIL",I1)))</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="containsText" priority="2" text="PASS" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("PASS",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
@@ -4627,8 +5061,8 @@
     <col customWidth="1" max="8" min="7" style="22" width="32.44140625"/>
     <col customWidth="1" max="9" min="9" style="22" width="8.88671875"/>
     <col customWidth="1" max="10" min="10" style="22" width="27"/>
-    <col customWidth="1" max="24" min="11" style="22" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="25" style="22" width="8.88671875"/>
+    <col customWidth="1" max="26" min="11" style="22" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="27" style="22" width="8.88671875"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="17.4" r="1">
@@ -6361,374 +6795,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="17.4"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="22" width="8.88671875"/>
-    <col customWidth="1" max="2" min="2" style="22" width="11.88671875"/>
-    <col customWidth="1" max="3" min="3" style="22" width="27.33203125"/>
-    <col customWidth="1" max="4" min="4" style="22" width="12"/>
-    <col customWidth="1" max="5" min="5" style="22" width="24.6640625"/>
-    <col customWidth="1" max="6" min="6" style="22" width="38.21875"/>
-    <col customWidth="1" max="7" min="7" style="22" width="32.44140625"/>
-    <col customWidth="1" max="40" min="8" style="22" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="41" style="22" width="8.88671875"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>case_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>interface</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>api_name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>request_data</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>expected_data</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="inlineStr">
-        <is>
-          <t>实名认证</t>
-        </is>
-      </c>
-      <c r="C2" s="24" t="inlineStr">
-        <is>
-          <t>u_id为空</t>
-        </is>
-      </c>
-      <c r="D2" s="24" t="inlineStr">
-        <is>
-          <t>verifyUserAuth</t>
-        </is>
-      </c>
-      <c r="E2" s="24" t="inlineStr">
-        <is>
-          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t>{"uid":"", "true_name":"陈晶晶","cre_id":"421126198809097244"}</t>
-        </is>
-      </c>
-      <c r="G2" s="11" t="inlineStr">
-        <is>
-          <t>{'faultcode': 'soap:Client', 'faultstring': 'Unmarshalling Error: For input string:""' }</t>
-        </is>
-      </c>
-      <c r="H2" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="n"/>
-      <c r="C3" s="24" t="inlineStr">
-        <is>
-          <t>姓名为空</t>
-        </is>
-      </c>
-      <c r="D3" s="24" t="inlineStr">
-        <is>
-          <t>verifyUserAuth</t>
-        </is>
-      </c>
-      <c r="E3" s="24" t="inlineStr">
-        <is>
-          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>{"uid":"128736679730", "true_name":" ","cre_id":"421126198809097244"}</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>{'retCode': '19001', 'retInfo': '真实姓名错误'}</t>
-        </is>
-      </c>
-      <c r="H3" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="n"/>
-      <c r="C4" s="24" t="inlineStr">
-        <is>
-          <t>姓名与身份证不符</t>
-        </is>
-      </c>
-      <c r="D4" s="24" t="inlineStr">
-        <is>
-          <t>verifyUserAuth</t>
-        </is>
-      </c>
-      <c r="E4" s="24" t="inlineStr">
-        <is>
-          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>{"uid":"128736679730", "true_name":"陈晶晶","cre_id":"421126198809097234"}</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>{'retCode': '19001', 'retInfo': '身份证号检验错误'}</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="n"/>
-      <c r="C5" s="24" t="inlineStr">
-        <is>
-          <t>17位身份证号</t>
-        </is>
-      </c>
-      <c r="D5" s="24" t="inlineStr">
-        <is>
-          <t>verifyUserAuth</t>
-        </is>
-      </c>
-      <c r="E5" s="24" t="inlineStr">
-        <is>
-          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>{"uid":"128736679730", "true_name":"陈晶晶","cre_id":"42112619880909724"}</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>{'retCode': '100010000', 'retInfo': '不是18位的身份证号码'}</t>
-        </is>
-      </c>
-      <c r="H5" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19" t="n"/>
-      <c r="C6" s="24" t="inlineStr">
-        <is>
-          <t>19位身份证号</t>
-        </is>
-      </c>
-      <c r="D6" s="24" t="inlineStr">
-        <is>
-          <t>verifyUserAuth</t>
-        </is>
-      </c>
-      <c r="E6" s="24" t="inlineStr">
-        <is>
-          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>{"uid":"128736679730", "true_name":"陈晶晶","cre_id":"4211261988090972445"}</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="inlineStr">
-        <is>
-          <t>{'retCode': '19001', 'retInfo': '身份证号错误'}</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="n"/>
-      <c r="C7" s="24" t="inlineStr">
-        <is>
-          <t>u_id为数字</t>
-        </is>
-      </c>
-      <c r="D7" s="24" t="inlineStr">
-        <is>
-          <t>verifyUserAuth</t>
-        </is>
-      </c>
-      <c r="E7" s="24" t="inlineStr">
-        <is>
-          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>{"uid":128736679730, "true_name":"伊尹","cre_id":"321088200607162562"}</t>
-        </is>
-      </c>
-      <c r="G7" s="6" t="inlineStr">
-        <is>
-          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="19" t="n"/>
-      <c r="C8" s="24" t="inlineStr">
-        <is>
-          <t>正常实名认证</t>
-        </is>
-      </c>
-      <c r="D8" s="24" t="inlineStr">
-        <is>
-          <t>verifyUserAuth</t>
-        </is>
-      </c>
-      <c r="E8" s="24" t="inlineStr">
-        <is>
-          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>{"uid":"128736679730", "true_name":"伊尹","cre_id":"321088200607162562"}</t>
-        </is>
-      </c>
-      <c r="G8" s="6" t="inlineStr">
-        <is>
-          <t>{'retCode': '0', 'retInfo': 'ok'}</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20" t="n"/>
-      <c r="C9" s="24" t="inlineStr">
-        <is>
-          <t>u_id未注册</t>
-        </is>
-      </c>
-      <c r="D9" s="24" t="inlineStr">
-        <is>
-          <t>verifyUserAuth</t>
-        </is>
-      </c>
-      <c r="E9" s="24" t="inlineStr">
-        <is>
-          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>{"uid":"0000", "true_name":"陈晶晶","cre_id":"421126198809097244"}</t>
-        </is>
-      </c>
-      <c r="G9" s="6" t="inlineStr">
-        <is>
-          <t>{'retCode': '20042002', 'retInfo': '用户不存在'}</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B9"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6753,8 +6819,8 @@
     <col customWidth="1" max="5" min="5" style="22" width="24.6640625"/>
     <col customWidth="1" max="6" min="6" style="22" width="38.21875"/>
     <col customWidth="1" max="7" min="7" style="22" width="32.44140625"/>
-    <col customWidth="1" max="198" min="8" style="22" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="199" style="22" width="8.88671875"/>
+    <col customWidth="1" max="200" min="8" style="22" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="201" style="22" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8544,8 +8610,8 @@
     <col customWidth="1" max="8" min="8" style="22" width="27.44140625"/>
     <col customWidth="1" max="9" min="9" style="22" width="42.88671875"/>
     <col customWidth="1" max="10" min="10" style="22" width="10.33203125"/>
-    <col customWidth="1" max="212" min="11" style="22" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="213" style="22" width="8.88671875"/>
+    <col customWidth="1" max="214" min="11" style="22" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="215" style="22" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9375,8 +9441,8 @@
     <col customWidth="1" max="9" min="9" style="22" width="34.21875"/>
     <col customWidth="1" max="10" min="10" style="22" width="10.33203125"/>
     <col customWidth="1" max="11" min="11" style="4" width="29.44140625"/>
-    <col customWidth="1" max="213" min="12" style="22" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="214" style="22" width="8.88671875"/>
+    <col customWidth="1" max="215" min="12" style="22" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="216" style="22" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
